--- a/proton_qT/expdata/12883.xlsx
+++ b/proton_qT/expdata/12883.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbarry/work/JAM/fitpack/database/proton_qT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C1B7EF-97EC-A145-A354-A68A15AAD6E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C350735F-8BD8-6244-92AF-867EAEE621A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15000" xr2:uid="{A606F8B6-81B7-9948-8A71-8E6CCF832065}"/>
   </bookViews>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -36,12 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="19">
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>m_min</t>
-  </si>
-  <si>
-    <t>m_max</t>
   </si>
   <si>
     <t>pT_min</t>
@@ -90,6 +76,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>M_min</t>
+  </si>
+  <si>
+    <t>M_max</t>
   </si>
 </sst>
 </file>
@@ -470,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7BD52A-19C4-3244-93CF-2775A72A46F5}">
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="O176" sqref="O176"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,43 +485,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
@@ -549,13 +541,13 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3">
         <v>9.16</v>
@@ -568,10 +560,10 @@
         <v>2.29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N2" s="2">
         <v>0.03</v>
@@ -594,13 +586,13 @@
         <v>0.2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3">
         <v>2.8800000000000003</v>
@@ -613,10 +605,10 @@
         <v>0.72000000000000008</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N3" s="2">
         <v>0.03</v>
@@ -639,13 +631,13 @@
         <v>0.4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" s="3">
         <v>2.7600000000000002</v>
@@ -658,10 +650,10 @@
         <v>0.69000000000000006</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N4" s="2">
         <v>0.03</v>
@@ -684,13 +676,13 @@
         <v>0.6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3">
         <v>2.3000000000000003</v>
@@ -703,10 +695,10 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N5" s="2">
         <v>0.03</v>
@@ -729,13 +721,13 @@
         <v>0.8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" s="3">
         <v>2.08</v>
@@ -748,10 +740,10 @@
         <v>0.52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N6" s="2">
         <v>0.03</v>
@@ -774,13 +766,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" s="3">
         <v>1.48</v>
@@ -793,10 +785,10 @@
         <v>0.37</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N7" s="2">
         <v>0.03</v>
@@ -819,13 +811,13 @@
         <v>1.2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" s="3">
         <v>1.18</v>
@@ -838,10 +830,10 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N8" s="2">
         <v>0.03</v>
@@ -864,13 +856,13 @@
         <v>1.4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9" s="3">
         <v>0.81700000000000006</v>
@@ -883,10 +875,10 @@
         <v>0.20425000000000001</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N9" s="2">
         <v>0.03</v>
@@ -909,13 +901,13 @@
         <v>1.6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10" s="3">
         <v>0.59</v>
@@ -928,10 +920,10 @@
         <v>0.14749999999999999</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N10" s="2">
         <v>0.03</v>
@@ -954,13 +946,13 @@
         <v>1.8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I11" s="3">
         <v>0.45800000000000007</v>
@@ -973,10 +965,10 @@
         <v>0.11450000000000002</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N11" s="2">
         <v>0.03</v>
@@ -999,13 +991,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I12" s="3">
         <v>0.31900000000000001</v>
@@ -1018,10 +1010,10 @@
         <v>7.9750000000000001E-2</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N12" s="2">
         <v>0.03</v>
@@ -1044,13 +1036,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I13" s="3">
         <v>0.16700000000000001</v>
@@ -1063,10 +1055,10 @@
         <v>4.1750000000000002E-2</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N13" s="2">
         <v>0.03</v>
@@ -1089,13 +1081,13 @@
         <v>2.4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I14" s="3">
         <v>0.111</v>
@@ -1108,10 +1100,10 @@
         <v>2.775E-2</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N14" s="2">
         <v>0.03</v>
@@ -1134,13 +1126,13 @@
         <v>2.6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I15" s="3">
         <v>7.1000000000000008E-2</v>
@@ -1153,10 +1145,10 @@
         <v>1.7750000000000002E-2</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N15" s="2">
         <v>0.03</v>
@@ -1179,13 +1171,13 @@
         <v>2.8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16" s="3">
         <v>4.9000000000000009E-2</v>
@@ -1198,10 +1190,10 @@
         <v>1.2250000000000002E-2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N16" s="2">
         <v>0.03</v>
@@ -1224,13 +1216,13 @@
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I17" s="3">
         <v>5.3000000000000005E-2</v>
@@ -1243,10 +1235,10 @@
         <v>1.3250000000000001E-2</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N17" s="2">
         <v>0.03</v>
@@ -1269,13 +1261,13 @@
         <v>3.2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I18" s="3">
         <v>8.0000000000000002E-3</v>
@@ -1288,10 +1280,10 @@
         <v>2E-3</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N18" s="2">
         <v>0.03</v>
@@ -1314,13 +1306,13 @@
         <v>3.6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I19" s="3">
         <v>2.6000000000000002E-2</v>
@@ -1333,10 +1325,10 @@
         <v>6.5000000000000006E-3</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N19" s="2">
         <v>0.03</v>
@@ -1359,13 +1351,13 @@
         <v>3.8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I20" s="3">
         <v>0.01</v>
@@ -1378,10 +1370,10 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N20" s="2">
         <v>0.03</v>
@@ -1404,13 +1396,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I21" s="3">
         <v>2.7000000000000003E-2</v>
@@ -1423,10 +1415,10 @@
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21" s="2">
         <v>0.03</v>
@@ -1449,13 +1441,13 @@
         <v>0.2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I22" s="3">
         <v>1.04</v>
@@ -1468,10 +1460,10 @@
         <v>0.26</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N22" s="2">
         <v>0.03</v>
@@ -1494,13 +1486,13 @@
         <v>0.4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I23" s="3">
         <v>0.96599999999999997</v>
@@ -1513,10 +1505,10 @@
         <v>0.24149999999999999</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N23" s="2">
         <v>0.03</v>
@@ -1539,13 +1531,13 @@
         <v>0.6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I24" s="3">
         <v>0.89400000000000002</v>
@@ -1558,10 +1550,10 @@
         <v>0.2235</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N24" s="2">
         <v>0.03</v>
@@ -1584,13 +1576,13 @@
         <v>0.8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I25" s="3">
         <v>0.70700000000000007</v>
@@ -1603,10 +1595,10 @@
         <v>0.17675000000000002</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N25" s="2">
         <v>0.03</v>
@@ -1629,13 +1621,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I26" s="3">
         <v>0.59399999999999997</v>
@@ -1648,10 +1640,10 @@
         <v>0.14849999999999999</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N26" s="2">
         <v>0.03</v>
@@ -1674,13 +1666,13 @@
         <v>1.2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I27" s="3">
         <v>0.44</v>
@@ -1693,10 +1685,10 @@
         <v>0.11</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N27" s="2">
         <v>0.03</v>
@@ -1719,13 +1711,13 @@
         <v>1.4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I28" s="3">
         <v>0.33</v>
@@ -1738,10 +1730,10 @@
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N28" s="2">
         <v>0.03</v>
@@ -1764,13 +1756,13 @@
         <v>1.6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I29" s="3">
         <v>0.217</v>
@@ -1783,10 +1775,10 @@
         <v>5.425E-2</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N29" s="2">
         <v>0.03</v>
@@ -1809,13 +1801,13 @@
         <v>1.8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I30" s="3">
         <v>0.153</v>
@@ -1828,10 +1820,10 @@
         <v>3.8249999999999999E-2</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N30" s="2">
         <v>0.03</v>
@@ -1854,13 +1846,13 @@
         <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I31" s="3">
         <v>8.8000000000000009E-2</v>
@@ -1873,10 +1865,10 @@
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N31" s="2">
         <v>0.03</v>
@@ -1899,13 +1891,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I32" s="3">
         <v>6.0999999999999999E-2</v>
@@ -1918,10 +1910,10 @@
         <v>1.525E-2</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N32" s="2">
         <v>0.03</v>
@@ -1944,13 +1936,13 @@
         <v>2.4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I33" s="3">
         <v>0.05</v>
@@ -1963,10 +1955,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N33" s="2">
         <v>0.03</v>
@@ -1989,13 +1981,13 @@
         <v>2.6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I34" s="3">
         <v>2.5000000000000001E-2</v>
@@ -2008,10 +2000,10 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N34" s="2">
         <v>0.03</v>
@@ -2034,13 +2026,13 @@
         <v>2.8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I35" s="3">
         <v>0.02</v>
@@ -2053,10 +2045,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N35" s="2">
         <v>0.03</v>
@@ -2079,13 +2071,13 @@
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I36" s="3">
         <v>1.4E-2</v>
@@ -2098,10 +2090,10 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N36" s="2">
         <v>0.03</v>
@@ -2124,13 +2116,13 @@
         <v>3.2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I37" s="3">
         <v>5.8999999999999999E-3</v>
@@ -2143,10 +2135,10 @@
         <v>1.475E-3</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N37" s="2">
         <v>0.03</v>
@@ -2169,13 +2161,13 @@
         <v>3.4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I38" s="3">
         <v>6.3999999999999994E-3</v>
@@ -2188,10 +2180,10 @@
         <v>1.5999999999999999E-3</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N38" s="2">
         <v>0.03</v>
@@ -2214,13 +2206,13 @@
         <v>3.6</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I39" s="3">
         <v>3.8000000000000004E-3</v>
@@ -2233,10 +2225,10 @@
         <v>9.5000000000000011E-4</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N39" s="2">
         <v>0.03</v>
@@ -2259,13 +2251,13 @@
         <v>3.8</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I40" s="3">
         <v>3.0999999999999999E-3</v>
@@ -2278,10 +2270,10 @@
         <v>7.7499999999999997E-4</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N40" s="2">
         <v>0.03</v>
@@ -2304,13 +2296,13 @@
         <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I41" s="3">
         <v>5.0000000000000001E-4</v>
@@ -2323,10 +2315,10 @@
         <v>1.25E-4</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N41" s="2">
         <v>0.03</v>
@@ -2349,13 +2341,13 @@
         <v>4.2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I42" s="3">
         <v>5.0000000000000001E-4</v>
@@ -2368,10 +2360,10 @@
         <v>1.25E-4</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N42" s="2">
         <v>0.03</v>
@@ -2394,13 +2386,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I43" s="3">
         <v>1.8000000000000002E-3</v>
@@ -2413,10 +2405,10 @@
         <v>4.5000000000000004E-4</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N43" s="2">
         <v>0.03</v>
@@ -2439,13 +2431,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I44" s="3">
         <v>-1.5000000000000002E-3</v>
@@ -2458,10 +2450,10 @@
         <v>-3.7500000000000006E-4</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N44" s="2">
         <v>0.03</v>
@@ -2484,13 +2476,13 @@
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I45" s="3">
         <v>1.2000000000000001E-3</v>
@@ -2503,10 +2495,10 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N45" s="2">
         <v>0.03</v>
@@ -2529,13 +2521,13 @@
         <v>0.2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I46" s="3">
         <v>0.38200000000000001</v>
@@ -2548,10 +2540,10 @@
         <v>9.5500000000000002E-2</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N46" s="2">
         <v>0.03</v>
@@ -2574,13 +2566,13 @@
         <v>0.4</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I47" s="3">
         <v>0.35400000000000004</v>
@@ -2593,10 +2585,10 @@
         <v>8.8500000000000009E-2</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N47" s="2">
         <v>0.03</v>
@@ -2619,13 +2611,13 @@
         <v>0.6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I48" s="3">
         <v>0.32800000000000001</v>
@@ -2638,10 +2630,10 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N48" s="2">
         <v>0.03</v>
@@ -2664,13 +2656,13 @@
         <v>0.8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I49" s="3">
         <v>0.28000000000000003</v>
@@ -2683,10 +2675,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N49" s="2">
         <v>0.03</v>
@@ -2709,13 +2701,13 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I50" s="3">
         <v>0.221</v>
@@ -2728,10 +2720,10 @@
         <v>5.525E-2</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N50" s="2">
         <v>0.03</v>
@@ -2754,13 +2746,13 @@
         <v>1.2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I51" s="3">
         <v>0.17</v>
@@ -2773,10 +2765,10 @@
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N51" s="2">
         <v>0.03</v>
@@ -2799,13 +2791,13 @@
         <v>1.4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I52" s="3">
         <v>0.125</v>
@@ -2818,10 +2810,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N52" s="2">
         <v>0.03</v>
@@ -2844,13 +2836,13 @@
         <v>1.6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I53" s="3">
         <v>8.6000000000000007E-2</v>
@@ -2863,10 +2855,10 @@
         <v>2.1500000000000002E-2</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N53" s="2">
         <v>0.03</v>
@@ -2889,13 +2881,13 @@
         <v>1.8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I54" s="3">
         <v>5.5E-2</v>
@@ -2908,10 +2900,10 @@
         <v>1.375E-2</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N54" s="2">
         <v>0.03</v>
@@ -2934,13 +2926,13 @@
         <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I55" s="3">
         <v>4.7E-2</v>
@@ -2953,10 +2945,10 @@
         <v>1.175E-2</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N55" s="2">
         <v>0.03</v>
@@ -2979,13 +2971,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I56" s="3">
         <v>2.7000000000000003E-2</v>
@@ -2998,10 +2990,10 @@
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N56" s="2">
         <v>0.03</v>
@@ -3024,13 +3016,13 @@
         <v>2.4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I57" s="3">
         <v>0.02</v>
@@ -3043,10 +3035,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N57" s="2">
         <v>0.03</v>
@@ -3069,13 +3061,13 @@
         <v>2.6</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I58" s="3">
         <v>1.4E-2</v>
@@ -3088,10 +3080,10 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N58" s="2">
         <v>0.03</v>
@@ -3114,13 +3106,13 @@
         <v>2.8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I59" s="3">
         <v>7.7000000000000002E-3</v>
@@ -3133,10 +3125,10 @@
         <v>1.9250000000000001E-3</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N59" s="2">
         <v>0.03</v>
@@ -3159,13 +3151,13 @@
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I60" s="3">
         <v>5.7999999999999996E-3</v>
@@ -3178,10 +3170,10 @@
         <v>1.4499999999999999E-3</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N60" s="2">
         <v>0.03</v>
@@ -3204,13 +3196,13 @@
         <v>3.2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I61" s="3">
         <v>3.0000000000000005E-3</v>
@@ -3223,10 +3215,10 @@
         <v>7.5000000000000012E-4</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N61" s="2">
         <v>0.03</v>
@@ -3249,13 +3241,13 @@
         <v>3.4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I62" s="3">
         <v>1.1000000000000001E-3</v>
@@ -3268,10 +3260,10 @@
         <v>2.7500000000000002E-4</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N62" s="2">
         <v>0.03</v>
@@ -3294,13 +3286,13 @@
         <v>3.6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I63" s="3">
         <v>2.4000000000000002E-3</v>
@@ -3313,10 +3305,10 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N63" s="2">
         <v>0.03</v>
@@ -3339,13 +3331,13 @@
         <v>3.8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I64" s="3">
         <v>2.2000000000000001E-3</v>
@@ -3358,10 +3350,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N64" s="2">
         <v>0.03</v>
@@ -3384,13 +3376,13 @@
         <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I65" s="3">
         <v>9.3999999999999997E-4</v>
@@ -3403,10 +3395,10 @@
         <v>2.3499999999999999E-4</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N65" s="2">
         <v>0.03</v>
@@ -3429,13 +3421,13 @@
         <v>4.2</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I66" s="3">
         <v>2.6000000000000003E-4</v>
@@ -3448,10 +3440,10 @@
         <v>6.5000000000000008E-5</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N66" s="2">
         <v>0.03</v>
@@ -3474,13 +3466,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I67" s="3">
         <v>2.6000000000000003E-4</v>
@@ -3493,10 +3485,10 @@
         <v>6.5000000000000008E-5</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N67" s="2">
         <v>0.03</v>
@@ -3519,13 +3511,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I68" s="3">
         <v>2.8000000000000003E-4</v>
@@ -3538,10 +3530,10 @@
         <v>7.0000000000000007E-5</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N68" s="2">
         <v>0.03</v>
@@ -3564,13 +3556,13 @@
         <v>4.8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I69" s="3">
         <v>5.6999999999999998E-4</v>
@@ -3583,10 +3575,10 @@
         <v>1.4249999999999999E-4</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N69" s="2">
         <v>0.03</v>
@@ -3609,13 +3601,13 @@
         <v>0.2</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I70" s="3">
         <v>0.158</v>
@@ -3628,10 +3620,10 @@
         <v>3.95E-2</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N70" s="2">
         <v>0.03</v>
@@ -3654,13 +3646,13 @@
         <v>0.4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I71" s="3">
         <v>0.13800000000000001</v>
@@ -3673,10 +3665,10 @@
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N71" s="2">
         <v>0.03</v>
@@ -3699,13 +3691,13 @@
         <v>0.6</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I72" s="3">
         <v>0.122</v>
@@ -3718,10 +3710,10 @@
         <v>3.0499999999999999E-2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N72" s="2">
         <v>0.03</v>
@@ -3744,13 +3736,13 @@
         <v>0.8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I73" s="3">
         <v>0.112</v>
@@ -3763,10 +3755,10 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N73" s="2">
         <v>0.03</v>
@@ -3789,13 +3781,13 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I74" s="3">
         <v>8.3000000000000004E-2</v>
@@ -3808,10 +3800,10 @@
         <v>2.0750000000000001E-2</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N74" s="2">
         <v>0.03</v>
@@ -3834,13 +3826,13 @@
         <v>1.2</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I75" s="3">
         <v>6.3E-2</v>
@@ -3853,10 +3845,10 @@
         <v>1.575E-2</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N75" s="2">
         <v>0.03</v>
@@ -3879,13 +3871,13 @@
         <v>1.4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I76" s="3">
         <v>4.7E-2</v>
@@ -3898,10 +3890,10 @@
         <v>1.175E-2</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N76" s="2">
         <v>0.03</v>
@@ -3924,13 +3916,13 @@
         <v>1.6</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I77" s="3">
         <v>3.9E-2</v>
@@ -3943,10 +3935,10 @@
         <v>9.75E-3</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N77" s="2">
         <v>0.03</v>
@@ -3969,13 +3961,13 @@
         <v>1.8</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I78" s="3">
         <v>2.3E-2</v>
@@ -3988,10 +3980,10 @@
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N78" s="2">
         <v>0.03</v>
@@ -4014,13 +4006,13 @@
         <v>2</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I79" s="3">
         <v>1.7100000000000001E-2</v>
@@ -4033,10 +4025,10 @@
         <v>4.2750000000000002E-3</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N79" s="2">
         <v>0.03</v>
@@ -4059,13 +4051,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I80" s="3">
         <v>9.4999999999999998E-3</v>
@@ -4078,10 +4070,10 @@
         <v>2.3749999999999999E-3</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N80" s="2">
         <v>0.03</v>
@@ -4104,13 +4096,13 @@
         <v>2.4</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I81" s="3">
         <v>7.2000000000000007E-3</v>
@@ -4123,10 +4115,10 @@
         <v>1.8000000000000002E-3</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N81" s="2">
         <v>0.03</v>
@@ -4149,13 +4141,13 @@
         <v>2.6</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I82" s="3">
         <v>3.9000000000000003E-3</v>
@@ -4168,10 +4160,10 @@
         <v>9.7500000000000006E-4</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N82" s="2">
         <v>0.03</v>
@@ -4194,13 +4186,13 @@
         <v>2.8</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I83" s="3">
         <v>3.3E-3</v>
@@ -4213,10 +4205,10 @@
         <v>8.25E-4</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N83" s="2">
         <v>0.03</v>
@@ -4239,13 +4231,13 @@
         <v>3</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I84" s="3">
         <v>1.5999999999999999E-3</v>
@@ -4258,10 +4250,10 @@
         <v>3.9999999999999996E-4</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N84" s="2">
         <v>0.03</v>
@@ -4284,13 +4276,13 @@
         <v>3.2</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I85" s="3">
         <v>8.4000000000000014E-4</v>
@@ -4303,10 +4295,10 @@
         <v>2.1000000000000004E-4</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N85" s="2">
         <v>0.03</v>
@@ -4329,13 +4321,13 @@
         <v>3.4</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I86" s="3">
         <v>8.3000000000000001E-4</v>
@@ -4348,10 +4340,10 @@
         <v>2.075E-4</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N86" s="2">
         <v>0.03</v>
@@ -4374,13 +4366,13 @@
         <v>3.6</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I87" s="3">
         <v>2.6000000000000003E-4</v>
@@ -4393,10 +4385,10 @@
         <v>6.5000000000000008E-5</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N87" s="2">
         <v>0.03</v>
@@ -4419,13 +4411,13 @@
         <v>3.8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I88" s="3">
         <v>6.3000000000000003E-4</v>
@@ -4438,10 +4430,10 @@
         <v>1.5750000000000001E-4</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N88" s="2">
         <v>0.03</v>
@@ -4464,13 +4456,13 @@
         <v>4.8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I89" s="3">
         <v>1.5000000000000001E-4</v>
@@ -4483,10 +4475,10 @@
         <v>3.7500000000000003E-5</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N89" s="2">
         <v>0.03</v>
@@ -4509,13 +4501,13 @@
         <v>0.2</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I90" s="3">
         <v>0.11700000000000001</v>
@@ -4528,10 +4520,10 @@
         <v>2.9250000000000002E-2</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N90" s="2">
         <v>0.03</v>
@@ -4554,13 +4546,13 @@
         <v>0.4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I91" s="3">
         <v>0.11899999999999999</v>
@@ -4573,10 +4565,10 @@
         <v>2.9749999999999999E-2</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N91" s="2">
         <v>0.03</v>
@@ -4599,13 +4591,13 @@
         <v>0.6</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I92" s="3">
         <v>0.109</v>
@@ -4618,10 +4610,10 @@
         <v>2.725E-2</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N92" s="2">
         <v>0.03</v>
@@ -4644,13 +4636,13 @@
         <v>0.8</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I93" s="3">
         <v>9.4E-2</v>
@@ -4663,10 +4655,10 @@
         <v>2.35E-2</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N93" s="2">
         <v>0.03</v>
@@ -4689,13 +4681,13 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I94" s="3">
         <v>7.8E-2</v>
@@ -4708,10 +4700,10 @@
         <v>1.95E-2</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N94" s="2">
         <v>0.03</v>
@@ -4734,13 +4726,13 @@
         <v>1.2</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I95" s="3">
         <v>0.05</v>
@@ -4753,10 +4745,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N95" s="2">
         <v>0.03</v>
@@ -4779,13 +4771,13 @@
         <v>1.4</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I96" s="3">
         <v>4.4000000000000004E-2</v>
@@ -4798,10 +4790,10 @@
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N96" s="2">
         <v>0.03</v>
@@ -4824,13 +4816,13 @@
         <v>1.6</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I97" s="3">
         <v>3.3000000000000002E-2</v>
@@ -4843,10 +4835,10 @@
         <v>8.2500000000000004E-3</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N97" s="2">
         <v>0.03</v>
@@ -4869,13 +4861,13 @@
         <v>1.8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I98" s="3">
         <v>2.3E-2</v>
@@ -4888,10 +4880,10 @@
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N98" s="2">
         <v>0.03</v>
@@ -4914,13 +4906,13 @@
         <v>2</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I99" s="3">
         <v>1.5099999999999999E-2</v>
@@ -4933,10 +4925,10 @@
         <v>3.7749999999999997E-3</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N99" s="2">
         <v>0.03</v>
@@ -4959,13 +4951,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I100" s="3">
         <v>1.2200000000000001E-2</v>
@@ -4978,10 +4970,10 @@
         <v>3.0500000000000002E-3</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N100" s="2">
         <v>0.03</v>
@@ -5004,13 +4996,13 @@
         <v>2.4</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I101" s="3">
         <v>7.8000000000000005E-3</v>
@@ -5023,10 +5015,10 @@
         <v>1.9500000000000001E-3</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N101" s="2">
         <v>0.03</v>
@@ -5049,13 +5041,13 @@
         <v>2.6</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I102" s="3">
         <v>5.6000000000000008E-3</v>
@@ -5068,10 +5060,10 @@
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N102" s="2">
         <v>0.03</v>
@@ -5094,13 +5086,13 @@
         <v>2.8</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I103" s="3">
         <v>4.4000000000000003E-3</v>
@@ -5113,10 +5105,10 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N103" s="2">
         <v>0.03</v>
@@ -5139,13 +5131,13 @@
         <v>3</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I104" s="3">
         <v>2.8999999999999998E-3</v>
@@ -5158,10 +5150,10 @@
         <v>7.2499999999999995E-4</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N104" s="2">
         <v>0.03</v>
@@ -5184,13 +5176,13 @@
         <v>3.2</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I105" s="3">
         <v>1.5499999999999999E-3</v>
@@ -5203,10 +5195,10 @@
         <v>3.8749999999999999E-4</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N105" s="2">
         <v>0.03</v>
@@ -5229,13 +5221,13 @@
         <v>3.4</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I106" s="3">
         <v>1.3799999999999999E-3</v>
@@ -5248,10 +5240,10 @@
         <v>3.4499999999999998E-4</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N106" s="2">
         <v>0.03</v>
@@ -5274,13 +5266,13 @@
         <v>3.6</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I107" s="3">
         <v>1.0499999999999999E-3</v>
@@ -5293,10 +5285,10 @@
         <v>2.6249999999999998E-4</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N107" s="2">
         <v>0.03</v>
@@ -5319,13 +5311,13 @@
         <v>3.8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I108" s="3">
         <v>7.1000000000000002E-4</v>
@@ -5338,10 +5330,10 @@
         <v>1.775E-4</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N108" s="2">
         <v>0.03</v>
@@ -5364,13 +5356,13 @@
         <v>4</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I109" s="3">
         <v>4.4000000000000002E-4</v>
@@ -5383,10 +5375,10 @@
         <v>1.1E-4</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N109" s="2">
         <v>0.03</v>
@@ -5409,13 +5401,13 @@
         <v>4.2</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I110" s="3">
         <v>5.1000000000000004E-4</v>
@@ -5428,10 +5420,10 @@
         <v>1.2750000000000001E-4</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N110" s="2">
         <v>0.03</v>
@@ -5454,13 +5446,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I111" s="3">
         <v>2.1000000000000004E-4</v>
@@ -5473,10 +5465,10 @@
         <v>5.2500000000000009E-5</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N111" s="2">
         <v>0.03</v>
@@ -5499,13 +5491,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I112" s="3">
         <v>3.8000000000000002E-4</v>
@@ -5518,10 +5510,10 @@
         <v>9.5000000000000005E-5</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N112" s="2">
         <v>0.03</v>
@@ -5544,13 +5536,13 @@
         <v>0.2</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I113" s="3">
         <v>3.6500000000000005E-2</v>
@@ -5563,10 +5555,10 @@
         <v>9.1250000000000012E-3</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N113" s="2">
         <v>0.03</v>
@@ -5589,13 +5581,13 @@
         <v>0.4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I114" s="3">
         <v>3.78E-2</v>
@@ -5608,10 +5600,10 @@
         <v>9.4500000000000001E-3</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N114" s="2">
         <v>0.03</v>
@@ -5634,13 +5626,13 @@
         <v>0.6</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I115" s="3">
         <v>3.2300000000000002E-2</v>
@@ -5653,10 +5645,10 @@
         <v>8.0750000000000006E-3</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N115" s="2">
         <v>0.03</v>
@@ -5679,13 +5671,13 @@
         <v>0.8</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I116" s="3">
         <v>2.5700000000000001E-2</v>
@@ -5698,10 +5690,10 @@
         <v>6.4250000000000002E-3</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N116" s="2">
         <v>0.03</v>
@@ -5724,13 +5716,13 @@
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I117" s="3">
         <v>2.3199999999999998E-2</v>
@@ -5743,10 +5735,10 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N117" s="2">
         <v>0.03</v>
@@ -5769,13 +5761,13 @@
         <v>1.2</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I118" s="3">
         <v>1.9900000000000001E-2</v>
@@ -5788,10 +5780,10 @@
         <v>4.9750000000000003E-3</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N118" s="2">
         <v>0.03</v>
@@ -5814,13 +5806,13 @@
         <v>1.4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I119" s="3">
         <v>1.2799999999999999E-2</v>
@@ -5833,10 +5825,10 @@
         <v>3.1999999999999997E-3</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N119" s="2">
         <v>0.03</v>
@@ -5859,13 +5851,13 @@
         <v>1.6</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I120" s="3">
         <v>8.2000000000000007E-3</v>
@@ -5878,10 +5870,10 @@
         <v>2.0500000000000002E-3</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N120" s="2">
         <v>0.03</v>
@@ -5904,13 +5896,13 @@
         <v>1.8</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I121" s="3">
         <v>6.000000000000001E-3</v>
@@ -5923,10 +5915,10 @@
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N121" s="2">
         <v>0.03</v>
@@ -5949,13 +5941,13 @@
         <v>2</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I122" s="3">
         <v>4.8000000000000004E-3</v>
@@ -5968,10 +5960,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N122" s="2">
         <v>0.03</v>
@@ -5994,13 +5986,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I123" s="3">
         <v>3.1999999999999997E-3</v>
@@ -6013,10 +6005,10 @@
         <v>7.9999999999999993E-4</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N123" s="2">
         <v>0.03</v>
@@ -6039,13 +6031,13 @@
         <v>2.4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I124" s="3">
         <v>2.5000000000000001E-3</v>
@@ -6058,10 +6050,10 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N124" s="2">
         <v>0.03</v>
@@ -6084,13 +6076,13 @@
         <v>2.6</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I125" s="3">
         <v>1.4000000000000002E-3</v>
@@ -6103,10 +6095,10 @@
         <v>3.5000000000000005E-4</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N125" s="2">
         <v>0.03</v>
@@ -6129,13 +6121,13 @@
         <v>2.8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I126" s="3">
         <v>1E-3</v>
@@ -6148,10 +6140,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N126" s="2">
         <v>0.03</v>
@@ -6174,13 +6166,13 @@
         <v>3</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I127" s="3">
         <v>1E-3</v>
@@ -6193,10 +6185,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N127" s="2">
         <v>0.03</v>
@@ -6219,13 +6211,13 @@
         <v>3.2</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I128" s="3">
         <v>2.8000000000000003E-4</v>
@@ -6238,10 +6230,10 @@
         <v>7.0000000000000007E-5</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N128" s="2">
         <v>0.03</v>
@@ -6264,13 +6256,13 @@
         <v>3.4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I129" s="3">
         <v>5.8E-4</v>
@@ -6283,10 +6275,10 @@
         <v>1.45E-4</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N129" s="2">
         <v>0.03</v>
@@ -6309,13 +6301,13 @@
         <v>3.6</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I130" s="3">
         <v>3.5000000000000005E-4</v>
@@ -6328,10 +6320,10 @@
         <v>8.7500000000000013E-5</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N130" s="2">
         <v>0.03</v>
@@ -6354,13 +6346,13 @@
         <v>3.8</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I131" s="3">
         <v>6.0000000000000002E-5</v>
@@ -6373,10 +6365,10 @@
         <v>1.5E-5</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N131" s="2">
         <v>0.03</v>
@@ -6399,13 +6391,13 @@
         <v>4.2</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I132" s="3">
         <v>8.0000000000000007E-5</v>
@@ -6418,10 +6410,10 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N132" s="2">
         <v>0.03</v>
@@ -6444,13 +6436,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I133" s="3">
         <v>1.6000000000000001E-4</v>
@@ -6463,10 +6455,10 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N133" s="2">
         <v>0.03</v>
@@ -6489,13 +6481,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I134" s="3">
         <v>7.0000000000000007E-5</v>
@@ -6508,10 +6500,10 @@
         <v>1.7500000000000002E-5</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N134" s="2">
         <v>0.03</v>
@@ -6534,13 +6526,13 @@
         <v>0.2</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I135" s="3">
         <v>9.9299999999999996E-3</v>
@@ -6553,10 +6545,10 @@
         <v>2.4824999999999999E-3</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N135" s="2">
         <v>0.03</v>
@@ -6579,13 +6571,13 @@
         <v>0.4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I136" s="3">
         <v>6.9900000000000006E-3</v>
@@ -6598,10 +6590,10 @@
         <v>1.7475000000000001E-3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N136" s="2">
         <v>0.03</v>
@@ -6624,13 +6616,13 @@
         <v>0.6</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I137" s="3">
         <v>7.5300000000000011E-3</v>
@@ -6643,10 +6635,10 @@
         <v>1.8825000000000003E-3</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N137" s="2">
         <v>0.03</v>
@@ -6669,13 +6661,13 @@
         <v>0.8</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I138" s="3">
         <v>5.0899999999999999E-3</v>
@@ -6688,10 +6680,10 @@
         <v>1.2725E-3</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N138" s="2">
         <v>0.03</v>
@@ -6714,13 +6706,13 @@
         <v>1</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I139" s="3">
         <v>3.7700000000000003E-3</v>
@@ -6733,10 +6725,10 @@
         <v>9.4250000000000009E-4</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N139" s="2">
         <v>0.03</v>
@@ -6759,13 +6751,13 @@
         <v>1.2</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I140" s="3">
         <v>3.3400000000000001E-3</v>
@@ -6778,10 +6770,10 @@
         <v>8.3500000000000002E-4</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N140" s="2">
         <v>0.03</v>
@@ -6804,13 +6796,13 @@
         <v>1.4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I141" s="3">
         <v>2.8900000000000002E-3</v>
@@ -6823,10 +6815,10 @@
         <v>7.2250000000000005E-4</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N141" s="2">
         <v>0.03</v>
@@ -6849,13 +6841,13 @@
         <v>1.6</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I142" s="3">
         <v>2.3100000000000004E-3</v>
@@ -6868,10 +6860,10 @@
         <v>5.7750000000000011E-4</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N142" s="2">
         <v>0.03</v>
@@ -6894,13 +6886,13 @@
         <v>1.8</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I143" s="3">
         <v>1.2000000000000001E-3</v>
@@ -6913,10 +6905,10 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N143" s="2">
         <v>0.03</v>
@@ -6939,13 +6931,13 @@
         <v>2</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I144" s="3">
         <v>9.1E-4</v>
@@ -6958,10 +6950,10 @@
         <v>2.275E-4</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N144" s="2">
         <v>0.03</v>
@@ -6984,13 +6976,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I145" s="3">
         <v>5.2000000000000006E-4</v>
@@ -7003,10 +6995,10 @@
         <v>1.3000000000000002E-4</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N145" s="2">
         <v>0.03</v>
@@ -7029,13 +7021,13 @@
         <v>2.4</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I146" s="3">
         <v>3.2000000000000003E-4</v>
@@ -7048,10 +7040,10 @@
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N146" s="2">
         <v>0.03</v>
@@ -7074,13 +7066,13 @@
         <v>2.6</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I147" s="3">
         <v>3.1E-4</v>
@@ -7093,10 +7085,10 @@
         <v>7.75E-5</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N147" s="2">
         <v>0.03</v>
@@ -7119,13 +7111,13 @@
         <v>2.8</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I148" s="3">
         <v>1.6000000000000001E-4</v>
@@ -7138,10 +7130,10 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N148" s="2">
         <v>0.03</v>
@@ -7164,13 +7156,13 @@
         <v>3</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I149" s="3">
         <v>2.1000000000000004E-4</v>
@@ -7183,10 +7175,10 @@
         <v>5.2500000000000009E-5</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N149" s="2">
         <v>0.03</v>
@@ -7209,13 +7201,13 @@
         <v>3.2</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I150" s="3">
         <v>4.9999999999999996E-5</v>
@@ -7228,10 +7220,10 @@
         <v>1.2499999999999999E-5</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N150" s="2">
         <v>0.03</v>
@@ -7254,13 +7246,13 @@
         <v>3.4</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I151" s="3">
         <v>4.8999999999999998E-5</v>
@@ -7273,10 +7265,10 @@
         <v>1.225E-5</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N151" s="2">
         <v>0.03</v>
@@ -7299,13 +7291,13 @@
         <v>3.6</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I152" s="3">
         <v>4.6000000000000007E-5</v>
@@ -7318,10 +7310,10 @@
         <v>1.1500000000000002E-5</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N152" s="2">
         <v>0.03</v>
@@ -7344,13 +7336,13 @@
         <v>0.2</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I153" s="3">
         <v>2.2500000000000003E-3</v>
@@ -7363,10 +7355,10 @@
         <v>5.6250000000000007E-4</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N153" s="2">
         <v>0.03</v>
@@ -7389,13 +7381,13 @@
         <v>0.4</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I154" s="3">
         <v>2.5899999999999999E-3</v>
@@ -7408,10 +7400,10 @@
         <v>6.4749999999999996E-4</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N154" s="2">
         <v>0.03</v>
@@ -7434,13 +7426,13 @@
         <v>0.6</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I155" s="3">
         <v>1.57E-3</v>
@@ -7453,10 +7445,10 @@
         <v>3.925E-4</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N155" s="2">
         <v>0.03</v>
@@ -7479,13 +7471,13 @@
         <v>0.8</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I156" s="3">
         <v>2.0700000000000002E-3</v>
@@ -7498,10 +7490,10 @@
         <v>5.1750000000000006E-4</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N156" s="2">
         <v>0.03</v>
@@ -7524,13 +7516,13 @@
         <v>1</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I157" s="3">
         <v>1.5400000000000001E-3</v>
@@ -7543,10 +7535,10 @@
         <v>3.8500000000000003E-4</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N157" s="2">
         <v>0.03</v>
@@ -7569,13 +7561,13 @@
         <v>1.2</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I158" s="3">
         <v>1.2900000000000001E-3</v>
@@ -7588,10 +7580,10 @@
         <v>3.2250000000000003E-4</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N158" s="2">
         <v>0.03</v>
@@ -7614,13 +7606,13 @@
         <v>1.4</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I159" s="3">
         <v>9.7000000000000005E-4</v>
@@ -7633,10 +7625,10 @@
         <v>2.4250000000000001E-4</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N159" s="2">
         <v>0.03</v>
@@ -7659,13 +7651,13 @@
         <v>1.6</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I160" s="3">
         <v>8.5000000000000006E-4</v>
@@ -7678,10 +7670,10 @@
         <v>2.1250000000000002E-4</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N160" s="2">
         <v>0.03</v>
@@ -7704,13 +7696,13 @@
         <v>1.8</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I161" s="3">
         <v>5.2000000000000006E-4</v>
@@ -7723,10 +7715,10 @@
         <v>1.3000000000000002E-4</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N161" s="2">
         <v>0.03</v>
@@ -7749,13 +7741,13 @@
         <v>2</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I162" s="3">
         <v>1.6000000000000001E-4</v>
@@ -7768,10 +7760,10 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N162" s="2">
         <v>0.03</v>
@@ -7794,13 +7786,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I163" s="3">
         <v>2.4000000000000001E-4</v>
@@ -7813,10 +7805,10 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N163" s="2">
         <v>0.03</v>
@@ -7839,13 +7831,13 @@
         <v>2.4</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I164" s="3">
         <v>1.3000000000000002E-4</v>
@@ -7858,10 +7850,10 @@
         <v>3.2500000000000004E-5</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N164" s="2">
         <v>0.03</v>
@@ -7884,13 +7876,13 @@
         <v>2.8</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I165" s="3">
         <v>1.2E-4</v>
@@ -7903,10 +7895,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N165" s="2">
         <v>0.03</v>
@@ -7929,13 +7921,13 @@
         <v>3</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I166" s="3">
         <v>3.7000000000000005E-5</v>
@@ -7948,10 +7940,10 @@
         <v>9.2500000000000012E-6</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N166" s="2">
         <v>0.03</v>
@@ -7974,13 +7966,13 @@
         <v>3.2</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I167" s="3">
         <v>3.8999999999999999E-5</v>
@@ -7993,10 +7985,10 @@
         <v>9.7499999999999998E-6</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N167" s="2">
         <v>0.03</v>
@@ -8019,13 +8011,13 @@
         <v>0.2</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I168" s="3">
         <v>8.7000000000000001E-4</v>
@@ -8038,10 +8030,10 @@
         <v>2.175E-4</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N168" s="2">
         <v>0.03</v>
@@ -8064,13 +8056,13 @@
         <v>0.4</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I169" s="3">
         <v>5.6999999999999998E-4</v>
@@ -8083,10 +8075,10 @@
         <v>1.4249999999999999E-4</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N169" s="2">
         <v>0.03</v>
@@ -8109,13 +8101,13 @@
         <v>0.6</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I170" s="3">
         <v>6.2E-4</v>
@@ -8128,10 +8120,10 @@
         <v>1.55E-4</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N170" s="2">
         <v>0.03</v>
@@ -8154,13 +8146,13 @@
         <v>0.8</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I171" s="3">
         <v>8.5000000000000006E-4</v>
@@ -8173,10 +8165,10 @@
         <v>2.1250000000000002E-4</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N171" s="2">
         <v>0.03</v>
@@ -8199,13 +8191,13 @@
         <v>1</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I172" s="3">
         <v>3.8000000000000002E-4</v>
@@ -8218,10 +8210,10 @@
         <v>9.5000000000000005E-5</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N172" s="2">
         <v>0.03</v>
@@ -8244,13 +8236,13 @@
         <v>1.2</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I173" s="3">
         <v>3.5000000000000005E-4</v>
@@ -8263,10 +8255,10 @@
         <v>8.7500000000000013E-5</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N173" s="2">
         <v>0.03</v>
@@ -8289,13 +8281,13 @@
         <v>1.4</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I174" s="3">
         <v>2.9E-4</v>
@@ -8308,10 +8300,10 @@
         <v>7.25E-5</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N174" s="2">
         <v>0.03</v>
@@ -8334,13 +8326,13 @@
         <v>1.6</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I175" s="3">
         <v>1.9000000000000001E-4</v>
@@ -8353,10 +8345,10 @@
         <v>4.7500000000000003E-5</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N175" s="2">
         <v>0.03</v>
@@ -8379,13 +8371,13 @@
         <v>1.8</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I176" s="3">
         <v>9.0000000000000006E-5</v>
@@ -8398,10 +8390,10 @@
         <v>2.2500000000000001E-5</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N176" s="2">
         <v>0.03</v>
@@ -8424,13 +8416,13 @@
         <v>2</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I177" s="3">
         <v>1.1E-4</v>
@@ -8443,10 +8435,10 @@
         <v>2.7500000000000001E-5</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N177" s="2">
         <v>0.03</v>
@@ -8469,13 +8461,13 @@
         <v>2.4</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I178" s="3">
         <v>5.700000000000001E-5</v>
@@ -8488,10 +8480,10 @@
         <v>1.4250000000000002E-5</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N178" s="2">
         <v>0.03</v>
@@ -8514,13 +8506,13 @@
         <v>2.6</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I179" s="3">
         <v>3.0000000000000001E-5</v>
@@ -8533,10 +8525,10 @@
         <v>7.5000000000000002E-6</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N179" s="2">
         <v>0.03</v>

--- a/proton_qT/expdata/12883.xlsx
+++ b/proton_qT/expdata/12883.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C350735F-8BD8-6244-92AF-867EAEE621A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC7BF10-3009-CA4C-9726-F1189CA6F577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15000" xr2:uid="{A606F8B6-81B7-9948-8A71-8E6CCF832065}"/>
   </bookViews>
@@ -75,13 +75,13 @@
     <t>pp</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>M_min</t>
   </si>
   <si>
     <t>M_max</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,10 +485,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">

--- a/proton_qT/expdata/12883.xlsx
+++ b/proton_qT/expdata/12883.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC7BF10-3009-CA4C-9726-F1189CA6F577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F116E854-A901-2C46-BC08-45D347CCC9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15000" xr2:uid="{A606F8B6-81B7-9948-8A71-8E6CCF832065}"/>
   </bookViews>
@@ -28,12 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="19">
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>pT_min</t>
-  </si>
-  <si>
-    <t>pT_max</t>
   </si>
   <si>
     <t>obs</t>
@@ -75,13 +69,19 @@
     <t>pp</t>
   </si>
   <si>
-    <t>M_min</t>
+    <t>y</t>
   </si>
   <si>
-    <t>M_max</t>
+    <t>Qmin</t>
   </si>
   <si>
-    <t>y</t>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>pTmin</t>
+  </si>
+  <si>
+    <t>pTmax</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,43 +485,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
@@ -541,13 +541,13 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3">
         <v>9.16</v>
@@ -560,10 +560,10 @@
         <v>2.29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N2" s="2">
         <v>0.03</v>
@@ -586,13 +586,13 @@
         <v>0.2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3">
         <v>2.8800000000000003</v>
@@ -605,10 +605,10 @@
         <v>0.72000000000000008</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N3" s="2">
         <v>0.03</v>
@@ -631,13 +631,13 @@
         <v>0.4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3">
         <v>2.7600000000000002</v>
@@ -650,10 +650,10 @@
         <v>0.69000000000000006</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N4" s="2">
         <v>0.03</v>
@@ -676,13 +676,13 @@
         <v>0.6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3">
         <v>2.3000000000000003</v>
@@ -695,10 +695,10 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N5" s="2">
         <v>0.03</v>
@@ -721,13 +721,13 @@
         <v>0.8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3">
         <v>2.08</v>
@@ -740,10 +740,10 @@
         <v>0.52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N6" s="2">
         <v>0.03</v>
@@ -766,13 +766,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" s="3">
         <v>1.48</v>
@@ -785,10 +785,10 @@
         <v>0.37</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N7" s="2">
         <v>0.03</v>
@@ -811,13 +811,13 @@
         <v>1.2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3">
         <v>1.18</v>
@@ -830,10 +830,10 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N8" s="2">
         <v>0.03</v>
@@ -856,13 +856,13 @@
         <v>1.4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I9" s="3">
         <v>0.81700000000000006</v>
@@ -875,10 +875,10 @@
         <v>0.20425000000000001</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9" s="2">
         <v>0.03</v>
@@ -901,13 +901,13 @@
         <v>1.6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I10" s="3">
         <v>0.59</v>
@@ -920,10 +920,10 @@
         <v>0.14749999999999999</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N10" s="2">
         <v>0.03</v>
@@ -946,13 +946,13 @@
         <v>1.8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I11" s="3">
         <v>0.45800000000000007</v>
@@ -965,10 +965,10 @@
         <v>0.11450000000000002</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N11" s="2">
         <v>0.03</v>
@@ -991,13 +991,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" s="3">
         <v>0.31900000000000001</v>
@@ -1010,10 +1010,10 @@
         <v>7.9750000000000001E-2</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N12" s="2">
         <v>0.03</v>
@@ -1036,13 +1036,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I13" s="3">
         <v>0.16700000000000001</v>
@@ -1055,10 +1055,10 @@
         <v>4.1750000000000002E-2</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N13" s="2">
         <v>0.03</v>
@@ -1081,13 +1081,13 @@
         <v>2.4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" s="3">
         <v>0.111</v>
@@ -1100,10 +1100,10 @@
         <v>2.775E-2</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N14" s="2">
         <v>0.03</v>
@@ -1126,13 +1126,13 @@
         <v>2.6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I15" s="3">
         <v>7.1000000000000008E-2</v>
@@ -1145,10 +1145,10 @@
         <v>1.7750000000000002E-2</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N15" s="2">
         <v>0.03</v>
@@ -1171,13 +1171,13 @@
         <v>2.8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I16" s="3">
         <v>4.9000000000000009E-2</v>
@@ -1190,10 +1190,10 @@
         <v>1.2250000000000002E-2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N16" s="2">
         <v>0.03</v>
@@ -1216,13 +1216,13 @@
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I17" s="3">
         <v>5.3000000000000005E-2</v>
@@ -1235,10 +1235,10 @@
         <v>1.3250000000000001E-2</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N17" s="2">
         <v>0.03</v>
@@ -1261,13 +1261,13 @@
         <v>3.2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I18" s="3">
         <v>8.0000000000000002E-3</v>
@@ -1280,10 +1280,10 @@
         <v>2E-3</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N18" s="2">
         <v>0.03</v>
@@ -1306,13 +1306,13 @@
         <v>3.6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I19" s="3">
         <v>2.6000000000000002E-2</v>
@@ -1325,10 +1325,10 @@
         <v>6.5000000000000006E-3</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N19" s="2">
         <v>0.03</v>
@@ -1351,13 +1351,13 @@
         <v>3.8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I20" s="3">
         <v>0.01</v>
@@ -1370,10 +1370,10 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N20" s="2">
         <v>0.03</v>
@@ -1396,13 +1396,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I21" s="3">
         <v>2.7000000000000003E-2</v>
@@ -1415,10 +1415,10 @@
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N21" s="2">
         <v>0.03</v>
@@ -1441,13 +1441,13 @@
         <v>0.2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I22" s="3">
         <v>1.04</v>
@@ -1460,10 +1460,10 @@
         <v>0.26</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N22" s="2">
         <v>0.03</v>
@@ -1486,13 +1486,13 @@
         <v>0.4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I23" s="3">
         <v>0.96599999999999997</v>
@@ -1505,10 +1505,10 @@
         <v>0.24149999999999999</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N23" s="2">
         <v>0.03</v>
@@ -1531,13 +1531,13 @@
         <v>0.6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I24" s="3">
         <v>0.89400000000000002</v>
@@ -1550,10 +1550,10 @@
         <v>0.2235</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N24" s="2">
         <v>0.03</v>
@@ -1576,13 +1576,13 @@
         <v>0.8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I25" s="3">
         <v>0.70700000000000007</v>
@@ -1595,10 +1595,10 @@
         <v>0.17675000000000002</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N25" s="2">
         <v>0.03</v>
@@ -1621,13 +1621,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I26" s="3">
         <v>0.59399999999999997</v>
@@ -1640,10 +1640,10 @@
         <v>0.14849999999999999</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N26" s="2">
         <v>0.03</v>
@@ -1666,13 +1666,13 @@
         <v>1.2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I27" s="3">
         <v>0.44</v>
@@ -1685,10 +1685,10 @@
         <v>0.11</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N27" s="2">
         <v>0.03</v>
@@ -1711,13 +1711,13 @@
         <v>1.4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I28" s="3">
         <v>0.33</v>
@@ -1730,10 +1730,10 @@
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N28" s="2">
         <v>0.03</v>
@@ -1756,13 +1756,13 @@
         <v>1.6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I29" s="3">
         <v>0.217</v>
@@ -1775,10 +1775,10 @@
         <v>5.425E-2</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N29" s="2">
         <v>0.03</v>
@@ -1801,13 +1801,13 @@
         <v>1.8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I30" s="3">
         <v>0.153</v>
@@ -1820,10 +1820,10 @@
         <v>3.8249999999999999E-2</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N30" s="2">
         <v>0.03</v>
@@ -1846,13 +1846,13 @@
         <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I31" s="3">
         <v>8.8000000000000009E-2</v>
@@ -1865,10 +1865,10 @@
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N31" s="2">
         <v>0.03</v>
@@ -1891,13 +1891,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I32" s="3">
         <v>6.0999999999999999E-2</v>
@@ -1910,10 +1910,10 @@
         <v>1.525E-2</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N32" s="2">
         <v>0.03</v>
@@ -1936,13 +1936,13 @@
         <v>2.4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I33" s="3">
         <v>0.05</v>
@@ -1955,10 +1955,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N33" s="2">
         <v>0.03</v>
@@ -1981,13 +1981,13 @@
         <v>2.6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I34" s="3">
         <v>2.5000000000000001E-2</v>
@@ -2000,10 +2000,10 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N34" s="2">
         <v>0.03</v>
@@ -2026,13 +2026,13 @@
         <v>2.8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I35" s="3">
         <v>0.02</v>
@@ -2045,10 +2045,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N35" s="2">
         <v>0.03</v>
@@ -2071,13 +2071,13 @@
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I36" s="3">
         <v>1.4E-2</v>
@@ -2090,10 +2090,10 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N36" s="2">
         <v>0.03</v>
@@ -2116,13 +2116,13 @@
         <v>3.2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I37" s="3">
         <v>5.8999999999999999E-3</v>
@@ -2135,10 +2135,10 @@
         <v>1.475E-3</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N37" s="2">
         <v>0.03</v>
@@ -2161,13 +2161,13 @@
         <v>3.4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I38" s="3">
         <v>6.3999999999999994E-3</v>
@@ -2180,10 +2180,10 @@
         <v>1.5999999999999999E-3</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N38" s="2">
         <v>0.03</v>
@@ -2206,13 +2206,13 @@
         <v>3.6</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I39" s="3">
         <v>3.8000000000000004E-3</v>
@@ -2225,10 +2225,10 @@
         <v>9.5000000000000011E-4</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N39" s="2">
         <v>0.03</v>
@@ -2251,13 +2251,13 @@
         <v>3.8</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I40" s="3">
         <v>3.0999999999999999E-3</v>
@@ -2270,10 +2270,10 @@
         <v>7.7499999999999997E-4</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N40" s="2">
         <v>0.03</v>
@@ -2296,13 +2296,13 @@
         <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I41" s="3">
         <v>5.0000000000000001E-4</v>
@@ -2315,10 +2315,10 @@
         <v>1.25E-4</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N41" s="2">
         <v>0.03</v>
@@ -2341,13 +2341,13 @@
         <v>4.2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I42" s="3">
         <v>5.0000000000000001E-4</v>
@@ -2360,10 +2360,10 @@
         <v>1.25E-4</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N42" s="2">
         <v>0.03</v>
@@ -2386,13 +2386,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I43" s="3">
         <v>1.8000000000000002E-3</v>
@@ -2405,10 +2405,10 @@
         <v>4.5000000000000004E-4</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N43" s="2">
         <v>0.03</v>
@@ -2431,13 +2431,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I44" s="3">
         <v>-1.5000000000000002E-3</v>
@@ -2450,10 +2450,10 @@
         <v>-3.7500000000000006E-4</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N44" s="2">
         <v>0.03</v>
@@ -2476,13 +2476,13 @@
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I45" s="3">
         <v>1.2000000000000001E-3</v>
@@ -2495,10 +2495,10 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N45" s="2">
         <v>0.03</v>
@@ -2521,13 +2521,13 @@
         <v>0.2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I46" s="3">
         <v>0.38200000000000001</v>
@@ -2540,10 +2540,10 @@
         <v>9.5500000000000002E-2</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N46" s="2">
         <v>0.03</v>
@@ -2566,13 +2566,13 @@
         <v>0.4</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I47" s="3">
         <v>0.35400000000000004</v>
@@ -2585,10 +2585,10 @@
         <v>8.8500000000000009E-2</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N47" s="2">
         <v>0.03</v>
@@ -2611,13 +2611,13 @@
         <v>0.6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I48" s="3">
         <v>0.32800000000000001</v>
@@ -2630,10 +2630,10 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N48" s="2">
         <v>0.03</v>
@@ -2656,13 +2656,13 @@
         <v>0.8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I49" s="3">
         <v>0.28000000000000003</v>
@@ -2675,10 +2675,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N49" s="2">
         <v>0.03</v>
@@ -2701,13 +2701,13 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I50" s="3">
         <v>0.221</v>
@@ -2720,10 +2720,10 @@
         <v>5.525E-2</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N50" s="2">
         <v>0.03</v>
@@ -2746,13 +2746,13 @@
         <v>1.2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I51" s="3">
         <v>0.17</v>
@@ -2765,10 +2765,10 @@
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N51" s="2">
         <v>0.03</v>
@@ -2791,13 +2791,13 @@
         <v>1.4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I52" s="3">
         <v>0.125</v>
@@ -2810,10 +2810,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N52" s="2">
         <v>0.03</v>
@@ -2836,13 +2836,13 @@
         <v>1.6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I53" s="3">
         <v>8.6000000000000007E-2</v>
@@ -2855,10 +2855,10 @@
         <v>2.1500000000000002E-2</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N53" s="2">
         <v>0.03</v>
@@ -2881,13 +2881,13 @@
         <v>1.8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I54" s="3">
         <v>5.5E-2</v>
@@ -2900,10 +2900,10 @@
         <v>1.375E-2</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N54" s="2">
         <v>0.03</v>
@@ -2926,13 +2926,13 @@
         <v>2</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I55" s="3">
         <v>4.7E-2</v>
@@ -2945,10 +2945,10 @@
         <v>1.175E-2</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N55" s="2">
         <v>0.03</v>
@@ -2971,13 +2971,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I56" s="3">
         <v>2.7000000000000003E-2</v>
@@ -2990,10 +2990,10 @@
         <v>6.7500000000000008E-3</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N56" s="2">
         <v>0.03</v>
@@ -3016,13 +3016,13 @@
         <v>2.4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I57" s="3">
         <v>0.02</v>
@@ -3035,10 +3035,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N57" s="2">
         <v>0.03</v>
@@ -3061,13 +3061,13 @@
         <v>2.6</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I58" s="3">
         <v>1.4E-2</v>
@@ -3080,10 +3080,10 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N58" s="2">
         <v>0.03</v>
@@ -3106,13 +3106,13 @@
         <v>2.8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I59" s="3">
         <v>7.7000000000000002E-3</v>
@@ -3125,10 +3125,10 @@
         <v>1.9250000000000001E-3</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N59" s="2">
         <v>0.03</v>
@@ -3151,13 +3151,13 @@
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I60" s="3">
         <v>5.7999999999999996E-3</v>
@@ -3170,10 +3170,10 @@
         <v>1.4499999999999999E-3</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N60" s="2">
         <v>0.03</v>
@@ -3196,13 +3196,13 @@
         <v>3.2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I61" s="3">
         <v>3.0000000000000005E-3</v>
@@ -3215,10 +3215,10 @@
         <v>7.5000000000000012E-4</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N61" s="2">
         <v>0.03</v>
@@ -3241,13 +3241,13 @@
         <v>3.4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I62" s="3">
         <v>1.1000000000000001E-3</v>
@@ -3260,10 +3260,10 @@
         <v>2.7500000000000002E-4</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N62" s="2">
         <v>0.03</v>
@@ -3286,13 +3286,13 @@
         <v>3.6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I63" s="3">
         <v>2.4000000000000002E-3</v>
@@ -3305,10 +3305,10 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N63" s="2">
         <v>0.03</v>
@@ -3331,13 +3331,13 @@
         <v>3.8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I64" s="3">
         <v>2.2000000000000001E-3</v>
@@ -3350,10 +3350,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N64" s="2">
         <v>0.03</v>
@@ -3376,13 +3376,13 @@
         <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I65" s="3">
         <v>9.3999999999999997E-4</v>
@@ -3395,10 +3395,10 @@
         <v>2.3499999999999999E-4</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N65" s="2">
         <v>0.03</v>
@@ -3421,13 +3421,13 @@
         <v>4.2</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I66" s="3">
         <v>2.6000000000000003E-4</v>
@@ -3440,10 +3440,10 @@
         <v>6.5000000000000008E-5</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N66" s="2">
         <v>0.03</v>
@@ -3466,13 +3466,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I67" s="3">
         <v>2.6000000000000003E-4</v>
@@ -3485,10 +3485,10 @@
         <v>6.5000000000000008E-5</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N67" s="2">
         <v>0.03</v>
@@ -3511,13 +3511,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I68" s="3">
         <v>2.8000000000000003E-4</v>
@@ -3530,10 +3530,10 @@
         <v>7.0000000000000007E-5</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N68" s="2">
         <v>0.03</v>
@@ -3556,13 +3556,13 @@
         <v>4.8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I69" s="3">
         <v>5.6999999999999998E-4</v>
@@ -3575,10 +3575,10 @@
         <v>1.4249999999999999E-4</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N69" s="2">
         <v>0.03</v>
@@ -3601,13 +3601,13 @@
         <v>0.2</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I70" s="3">
         <v>0.158</v>
@@ -3620,10 +3620,10 @@
         <v>3.95E-2</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N70" s="2">
         <v>0.03</v>
@@ -3646,13 +3646,13 @@
         <v>0.4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I71" s="3">
         <v>0.13800000000000001</v>
@@ -3665,10 +3665,10 @@
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N71" s="2">
         <v>0.03</v>
@@ -3691,13 +3691,13 @@
         <v>0.6</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I72" s="3">
         <v>0.122</v>
@@ -3710,10 +3710,10 @@
         <v>3.0499999999999999E-2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N72" s="2">
         <v>0.03</v>
@@ -3736,13 +3736,13 @@
         <v>0.8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I73" s="3">
         <v>0.112</v>
@@ -3755,10 +3755,10 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N73" s="2">
         <v>0.03</v>
@@ -3781,13 +3781,13 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I74" s="3">
         <v>8.3000000000000004E-2</v>
@@ -3800,10 +3800,10 @@
         <v>2.0750000000000001E-2</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N74" s="2">
         <v>0.03</v>
@@ -3826,13 +3826,13 @@
         <v>1.2</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I75" s="3">
         <v>6.3E-2</v>
@@ -3845,10 +3845,10 @@
         <v>1.575E-2</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N75" s="2">
         <v>0.03</v>
@@ -3871,13 +3871,13 @@
         <v>1.4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I76" s="3">
         <v>4.7E-2</v>
@@ -3890,10 +3890,10 @@
         <v>1.175E-2</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N76" s="2">
         <v>0.03</v>
@@ -3916,13 +3916,13 @@
         <v>1.6</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I77" s="3">
         <v>3.9E-2</v>
@@ -3935,10 +3935,10 @@
         <v>9.75E-3</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N77" s="2">
         <v>0.03</v>
@@ -3961,13 +3961,13 @@
         <v>1.8</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I78" s="3">
         <v>2.3E-2</v>
@@ -3980,10 +3980,10 @@
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N78" s="2">
         <v>0.03</v>
@@ -4006,13 +4006,13 @@
         <v>2</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I79" s="3">
         <v>1.7100000000000001E-2</v>
@@ -4025,10 +4025,10 @@
         <v>4.2750000000000002E-3</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N79" s="2">
         <v>0.03</v>
@@ -4051,13 +4051,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I80" s="3">
         <v>9.4999999999999998E-3</v>
@@ -4070,10 +4070,10 @@
         <v>2.3749999999999999E-3</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N80" s="2">
         <v>0.03</v>
@@ -4096,13 +4096,13 @@
         <v>2.4</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I81" s="3">
         <v>7.2000000000000007E-3</v>
@@ -4115,10 +4115,10 @@
         <v>1.8000000000000002E-3</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N81" s="2">
         <v>0.03</v>
@@ -4141,13 +4141,13 @@
         <v>2.6</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I82" s="3">
         <v>3.9000000000000003E-3</v>
@@ -4160,10 +4160,10 @@
         <v>9.7500000000000006E-4</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N82" s="2">
         <v>0.03</v>
@@ -4186,13 +4186,13 @@
         <v>2.8</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I83" s="3">
         <v>3.3E-3</v>
@@ -4205,10 +4205,10 @@
         <v>8.25E-4</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N83" s="2">
         <v>0.03</v>
@@ -4231,13 +4231,13 @@
         <v>3</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I84" s="3">
         <v>1.5999999999999999E-3</v>
@@ -4250,10 +4250,10 @@
         <v>3.9999999999999996E-4</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N84" s="2">
         <v>0.03</v>
@@ -4276,13 +4276,13 @@
         <v>3.2</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I85" s="3">
         <v>8.4000000000000014E-4</v>
@@ -4295,10 +4295,10 @@
         <v>2.1000000000000004E-4</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N85" s="2">
         <v>0.03</v>
@@ -4321,13 +4321,13 @@
         <v>3.4</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I86" s="3">
         <v>8.3000000000000001E-4</v>
@@ -4340,10 +4340,10 @@
         <v>2.075E-4</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N86" s="2">
         <v>0.03</v>
@@ -4366,13 +4366,13 @@
         <v>3.6</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I87" s="3">
         <v>2.6000000000000003E-4</v>
@@ -4385,10 +4385,10 @@
         <v>6.5000000000000008E-5</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N87" s="2">
         <v>0.03</v>
@@ -4411,13 +4411,13 @@
         <v>3.8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I88" s="3">
         <v>6.3000000000000003E-4</v>
@@ -4430,10 +4430,10 @@
         <v>1.5750000000000001E-4</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N88" s="2">
         <v>0.03</v>
@@ -4456,13 +4456,13 @@
         <v>4.8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I89" s="3">
         <v>1.5000000000000001E-4</v>
@@ -4475,10 +4475,10 @@
         <v>3.7500000000000003E-5</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N89" s="2">
         <v>0.03</v>
@@ -4501,13 +4501,13 @@
         <v>0.2</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I90" s="3">
         <v>0.11700000000000001</v>
@@ -4520,10 +4520,10 @@
         <v>2.9250000000000002E-2</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N90" s="2">
         <v>0.03</v>
@@ -4546,13 +4546,13 @@
         <v>0.4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I91" s="3">
         <v>0.11899999999999999</v>
@@ -4565,10 +4565,10 @@
         <v>2.9749999999999999E-2</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N91" s="2">
         <v>0.03</v>
@@ -4591,13 +4591,13 @@
         <v>0.6</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I92" s="3">
         <v>0.109</v>
@@ -4610,10 +4610,10 @@
         <v>2.725E-2</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N92" s="2">
         <v>0.03</v>
@@ -4636,13 +4636,13 @@
         <v>0.8</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I93" s="3">
         <v>9.4E-2</v>
@@ -4655,10 +4655,10 @@
         <v>2.35E-2</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N93" s="2">
         <v>0.03</v>
@@ -4681,13 +4681,13 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I94" s="3">
         <v>7.8E-2</v>
@@ -4700,10 +4700,10 @@
         <v>1.95E-2</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N94" s="2">
         <v>0.03</v>
@@ -4726,13 +4726,13 @@
         <v>1.2</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I95" s="3">
         <v>0.05</v>
@@ -4745,10 +4745,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N95" s="2">
         <v>0.03</v>
@@ -4771,13 +4771,13 @@
         <v>1.4</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I96" s="3">
         <v>4.4000000000000004E-2</v>
@@ -4790,10 +4790,10 @@
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N96" s="2">
         <v>0.03</v>
@@ -4816,13 +4816,13 @@
         <v>1.6</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I97" s="3">
         <v>3.3000000000000002E-2</v>
@@ -4835,10 +4835,10 @@
         <v>8.2500000000000004E-3</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N97" s="2">
         <v>0.03</v>
@@ -4861,13 +4861,13 @@
         <v>1.8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I98" s="3">
         <v>2.3E-2</v>
@@ -4880,10 +4880,10 @@
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N98" s="2">
         <v>0.03</v>
@@ -4906,13 +4906,13 @@
         <v>2</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I99" s="3">
         <v>1.5099999999999999E-2</v>
@@ -4925,10 +4925,10 @@
         <v>3.7749999999999997E-3</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N99" s="2">
         <v>0.03</v>
@@ -4951,13 +4951,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I100" s="3">
         <v>1.2200000000000001E-2</v>
@@ -4970,10 +4970,10 @@
         <v>3.0500000000000002E-3</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N100" s="2">
         <v>0.03</v>
@@ -4996,13 +4996,13 @@
         <v>2.4</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I101" s="3">
         <v>7.8000000000000005E-3</v>
@@ -5015,10 +5015,10 @@
         <v>1.9500000000000001E-3</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N101" s="2">
         <v>0.03</v>
@@ -5041,13 +5041,13 @@
         <v>2.6</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I102" s="3">
         <v>5.6000000000000008E-3</v>
@@ -5060,10 +5060,10 @@
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N102" s="2">
         <v>0.03</v>
@@ -5086,13 +5086,13 @@
         <v>2.8</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I103" s="3">
         <v>4.4000000000000003E-3</v>
@@ -5105,10 +5105,10 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N103" s="2">
         <v>0.03</v>
@@ -5131,13 +5131,13 @@
         <v>3</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I104" s="3">
         <v>2.8999999999999998E-3</v>
@@ -5150,10 +5150,10 @@
         <v>7.2499999999999995E-4</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N104" s="2">
         <v>0.03</v>
@@ -5176,13 +5176,13 @@
         <v>3.2</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I105" s="3">
         <v>1.5499999999999999E-3</v>
@@ -5195,10 +5195,10 @@
         <v>3.8749999999999999E-4</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N105" s="2">
         <v>0.03</v>
@@ -5221,13 +5221,13 @@
         <v>3.4</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I106" s="3">
         <v>1.3799999999999999E-3</v>
@@ -5240,10 +5240,10 @@
         <v>3.4499999999999998E-4</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N106" s="2">
         <v>0.03</v>
@@ -5266,13 +5266,13 @@
         <v>3.6</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I107" s="3">
         <v>1.0499999999999999E-3</v>
@@ -5285,10 +5285,10 @@
         <v>2.6249999999999998E-4</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N107" s="2">
         <v>0.03</v>
@@ -5311,13 +5311,13 @@
         <v>3.8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I108" s="3">
         <v>7.1000000000000002E-4</v>
@@ -5330,10 +5330,10 @@
         <v>1.775E-4</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N108" s="2">
         <v>0.03</v>
@@ -5356,13 +5356,13 @@
         <v>4</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I109" s="3">
         <v>4.4000000000000002E-4</v>
@@ -5375,10 +5375,10 @@
         <v>1.1E-4</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N109" s="2">
         <v>0.03</v>
@@ -5401,13 +5401,13 @@
         <v>4.2</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I110" s="3">
         <v>5.1000000000000004E-4</v>
@@ -5420,10 +5420,10 @@
         <v>1.2750000000000001E-4</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N110" s="2">
         <v>0.03</v>
@@ -5446,13 +5446,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I111" s="3">
         <v>2.1000000000000004E-4</v>
@@ -5465,10 +5465,10 @@
         <v>5.2500000000000009E-5</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N111" s="2">
         <v>0.03</v>
@@ -5491,13 +5491,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I112" s="3">
         <v>3.8000000000000002E-4</v>
@@ -5510,10 +5510,10 @@
         <v>9.5000000000000005E-5</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N112" s="2">
         <v>0.03</v>
@@ -5536,13 +5536,13 @@
         <v>0.2</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I113" s="3">
         <v>3.6500000000000005E-2</v>
@@ -5555,10 +5555,10 @@
         <v>9.1250000000000012E-3</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N113" s="2">
         <v>0.03</v>
@@ -5581,13 +5581,13 @@
         <v>0.4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I114" s="3">
         <v>3.78E-2</v>
@@ -5600,10 +5600,10 @@
         <v>9.4500000000000001E-3</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N114" s="2">
         <v>0.03</v>
@@ -5626,13 +5626,13 @@
         <v>0.6</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I115" s="3">
         <v>3.2300000000000002E-2</v>
@@ -5645,10 +5645,10 @@
         <v>8.0750000000000006E-3</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N115" s="2">
         <v>0.03</v>
@@ -5671,13 +5671,13 @@
         <v>0.8</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I116" s="3">
         <v>2.5700000000000001E-2</v>
@@ -5690,10 +5690,10 @@
         <v>6.4250000000000002E-3</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N116" s="2">
         <v>0.03</v>
@@ -5716,13 +5716,13 @@
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I117" s="3">
         <v>2.3199999999999998E-2</v>
@@ -5735,10 +5735,10 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N117" s="2">
         <v>0.03</v>
@@ -5761,13 +5761,13 @@
         <v>1.2</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I118" s="3">
         <v>1.9900000000000001E-2</v>
@@ -5780,10 +5780,10 @@
         <v>4.9750000000000003E-3</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N118" s="2">
         <v>0.03</v>
@@ -5806,13 +5806,13 @@
         <v>1.4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I119" s="3">
         <v>1.2799999999999999E-2</v>
@@ -5825,10 +5825,10 @@
         <v>3.1999999999999997E-3</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N119" s="2">
         <v>0.03</v>
@@ -5851,13 +5851,13 @@
         <v>1.6</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I120" s="3">
         <v>8.2000000000000007E-3</v>
@@ -5870,10 +5870,10 @@
         <v>2.0500000000000002E-3</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N120" s="2">
         <v>0.03</v>
@@ -5896,13 +5896,13 @@
         <v>1.8</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I121" s="3">
         <v>6.000000000000001E-3</v>
@@ -5915,10 +5915,10 @@
         <v>1.5000000000000002E-3</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N121" s="2">
         <v>0.03</v>
@@ -5941,13 +5941,13 @@
         <v>2</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I122" s="3">
         <v>4.8000000000000004E-3</v>
@@ -5960,10 +5960,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N122" s="2">
         <v>0.03</v>
@@ -5986,13 +5986,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I123" s="3">
         <v>3.1999999999999997E-3</v>
@@ -6005,10 +6005,10 @@
         <v>7.9999999999999993E-4</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N123" s="2">
         <v>0.03</v>
@@ -6031,13 +6031,13 @@
         <v>2.4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I124" s="3">
         <v>2.5000000000000001E-3</v>
@@ -6050,10 +6050,10 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N124" s="2">
         <v>0.03</v>
@@ -6076,13 +6076,13 @@
         <v>2.6</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I125" s="3">
         <v>1.4000000000000002E-3</v>
@@ -6095,10 +6095,10 @@
         <v>3.5000000000000005E-4</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N125" s="2">
         <v>0.03</v>
@@ -6121,13 +6121,13 @@
         <v>2.8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I126" s="3">
         <v>1E-3</v>
@@ -6140,10 +6140,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N126" s="2">
         <v>0.03</v>
@@ -6166,13 +6166,13 @@
         <v>3</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I127" s="3">
         <v>1E-3</v>
@@ -6185,10 +6185,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N127" s="2">
         <v>0.03</v>
@@ -6211,13 +6211,13 @@
         <v>3.2</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I128" s="3">
         <v>2.8000000000000003E-4</v>
@@ -6230,10 +6230,10 @@
         <v>7.0000000000000007E-5</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N128" s="2">
         <v>0.03</v>
@@ -6256,13 +6256,13 @@
         <v>3.4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I129" s="3">
         <v>5.8E-4</v>
@@ -6275,10 +6275,10 @@
         <v>1.45E-4</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N129" s="2">
         <v>0.03</v>
@@ -6301,13 +6301,13 @@
         <v>3.6</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I130" s="3">
         <v>3.5000000000000005E-4</v>
@@ -6320,10 +6320,10 @@
         <v>8.7500000000000013E-5</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N130" s="2">
         <v>0.03</v>
@@ -6346,13 +6346,13 @@
         <v>3.8</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I131" s="3">
         <v>6.0000000000000002E-5</v>
@@ -6365,10 +6365,10 @@
         <v>1.5E-5</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N131" s="2">
         <v>0.03</v>
@@ -6391,13 +6391,13 @@
         <v>4.2</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I132" s="3">
         <v>8.0000000000000007E-5</v>
@@ -6410,10 +6410,10 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N132" s="2">
         <v>0.03</v>
@@ -6436,13 +6436,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I133" s="3">
         <v>1.6000000000000001E-4</v>
@@ -6455,10 +6455,10 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N133" s="2">
         <v>0.03</v>
@@ -6481,13 +6481,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I134" s="3">
         <v>7.0000000000000007E-5</v>
@@ -6500,10 +6500,10 @@
         <v>1.7500000000000002E-5</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N134" s="2">
         <v>0.03</v>
@@ -6526,13 +6526,13 @@
         <v>0.2</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I135" s="3">
         <v>9.9299999999999996E-3</v>
@@ -6545,10 +6545,10 @@
         <v>2.4824999999999999E-3</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N135" s="2">
         <v>0.03</v>
@@ -6571,13 +6571,13 @@
         <v>0.4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I136" s="3">
         <v>6.9900000000000006E-3</v>
@@ -6590,10 +6590,10 @@
         <v>1.7475000000000001E-3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N136" s="2">
         <v>0.03</v>
@@ -6616,13 +6616,13 @@
         <v>0.6</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I137" s="3">
         <v>7.5300000000000011E-3</v>
@@ -6635,10 +6635,10 @@
         <v>1.8825000000000003E-3</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N137" s="2">
         <v>0.03</v>
@@ -6661,13 +6661,13 @@
         <v>0.8</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I138" s="3">
         <v>5.0899999999999999E-3</v>
@@ -6680,10 +6680,10 @@
         <v>1.2725E-3</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N138" s="2">
         <v>0.03</v>
@@ -6706,13 +6706,13 @@
         <v>1</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I139" s="3">
         <v>3.7700000000000003E-3</v>
@@ -6725,10 +6725,10 @@
         <v>9.4250000000000009E-4</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N139" s="2">
         <v>0.03</v>
@@ -6751,13 +6751,13 @@
         <v>1.2</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I140" s="3">
         <v>3.3400000000000001E-3</v>
@@ -6770,10 +6770,10 @@
         <v>8.3500000000000002E-4</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N140" s="2">
         <v>0.03</v>
@@ -6796,13 +6796,13 @@
         <v>1.4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I141" s="3">
         <v>2.8900000000000002E-3</v>
@@ -6815,10 +6815,10 @@
         <v>7.2250000000000005E-4</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N141" s="2">
         <v>0.03</v>
@@ -6841,13 +6841,13 @@
         <v>1.6</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I142" s="3">
         <v>2.3100000000000004E-3</v>
@@ -6860,10 +6860,10 @@
         <v>5.7750000000000011E-4</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N142" s="2">
         <v>0.03</v>
@@ -6886,13 +6886,13 @@
         <v>1.8</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I143" s="3">
         <v>1.2000000000000001E-3</v>
@@ -6905,10 +6905,10 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N143" s="2">
         <v>0.03</v>
@@ -6931,13 +6931,13 @@
         <v>2</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I144" s="3">
         <v>9.1E-4</v>
@@ -6950,10 +6950,10 @@
         <v>2.275E-4</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N144" s="2">
         <v>0.03</v>
@@ -6976,13 +6976,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I145" s="3">
         <v>5.2000000000000006E-4</v>
@@ -6995,10 +6995,10 @@
         <v>1.3000000000000002E-4</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N145" s="2">
         <v>0.03</v>
@@ -7021,13 +7021,13 @@
         <v>2.4</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I146" s="3">
         <v>3.2000000000000003E-4</v>
@@ -7040,10 +7040,10 @@
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N146" s="2">
         <v>0.03</v>
@@ -7066,13 +7066,13 @@
         <v>2.6</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I147" s="3">
         <v>3.1E-4</v>
@@ -7085,10 +7085,10 @@
         <v>7.75E-5</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N147" s="2">
         <v>0.03</v>
@@ -7111,13 +7111,13 @@
         <v>2.8</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I148" s="3">
         <v>1.6000000000000001E-4</v>
@@ -7130,10 +7130,10 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N148" s="2">
         <v>0.03</v>
@@ -7156,13 +7156,13 @@
         <v>3</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I149" s="3">
         <v>2.1000000000000004E-4</v>
@@ -7175,10 +7175,10 @@
         <v>5.2500000000000009E-5</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N149" s="2">
         <v>0.03</v>
@@ -7201,13 +7201,13 @@
         <v>3.2</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I150" s="3">
         <v>4.9999999999999996E-5</v>
@@ -7220,10 +7220,10 @@
         <v>1.2499999999999999E-5</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N150" s="2">
         <v>0.03</v>
@@ -7246,13 +7246,13 @@
         <v>3.4</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I151" s="3">
         <v>4.8999999999999998E-5</v>
@@ -7265,10 +7265,10 @@
         <v>1.225E-5</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N151" s="2">
         <v>0.03</v>
@@ -7291,13 +7291,13 @@
         <v>3.6</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I152" s="3">
         <v>4.6000000000000007E-5</v>
@@ -7310,10 +7310,10 @@
         <v>1.1500000000000002E-5</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N152" s="2">
         <v>0.03</v>
@@ -7336,13 +7336,13 @@
         <v>0.2</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I153" s="3">
         <v>2.2500000000000003E-3</v>
@@ -7355,10 +7355,10 @@
         <v>5.6250000000000007E-4</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N153" s="2">
         <v>0.03</v>
@@ -7381,13 +7381,13 @@
         <v>0.4</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I154" s="3">
         <v>2.5899999999999999E-3</v>
@@ -7400,10 +7400,10 @@
         <v>6.4749999999999996E-4</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N154" s="2">
         <v>0.03</v>
@@ -7426,13 +7426,13 @@
         <v>0.6</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I155" s="3">
         <v>1.57E-3</v>
@@ -7445,10 +7445,10 @@
         <v>3.925E-4</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N155" s="2">
         <v>0.03</v>
@@ -7471,13 +7471,13 @@
         <v>0.8</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I156" s="3">
         <v>2.0700000000000002E-3</v>
@@ -7490,10 +7490,10 @@
         <v>5.1750000000000006E-4</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N156" s="2">
         <v>0.03</v>
@@ -7516,13 +7516,13 @@
         <v>1</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I157" s="3">
         <v>1.5400000000000001E-3</v>
@@ -7535,10 +7535,10 @@
         <v>3.8500000000000003E-4</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N157" s="2">
         <v>0.03</v>
@@ -7561,13 +7561,13 @@
         <v>1.2</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I158" s="3">
         <v>1.2900000000000001E-3</v>
@@ -7580,10 +7580,10 @@
         <v>3.2250000000000003E-4</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N158" s="2">
         <v>0.03</v>
@@ -7606,13 +7606,13 @@
         <v>1.4</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I159" s="3">
         <v>9.7000000000000005E-4</v>
@@ -7625,10 +7625,10 @@
         <v>2.4250000000000001E-4</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N159" s="2">
         <v>0.03</v>
@@ -7651,13 +7651,13 @@
         <v>1.6</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I160" s="3">
         <v>8.5000000000000006E-4</v>
@@ -7670,10 +7670,10 @@
         <v>2.1250000000000002E-4</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N160" s="2">
         <v>0.03</v>
@@ -7696,13 +7696,13 @@
         <v>1.8</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I161" s="3">
         <v>5.2000000000000006E-4</v>
@@ -7715,10 +7715,10 @@
         <v>1.3000000000000002E-4</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N161" s="2">
         <v>0.03</v>
@@ -7741,13 +7741,13 @@
         <v>2</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I162" s="3">
         <v>1.6000000000000001E-4</v>
@@ -7760,10 +7760,10 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N162" s="2">
         <v>0.03</v>
@@ -7786,13 +7786,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I163" s="3">
         <v>2.4000000000000001E-4</v>
@@ -7805,10 +7805,10 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N163" s="2">
         <v>0.03</v>
@@ -7831,13 +7831,13 @@
         <v>2.4</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I164" s="3">
         <v>1.3000000000000002E-4</v>
@@ -7850,10 +7850,10 @@
         <v>3.2500000000000004E-5</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N164" s="2">
         <v>0.03</v>
@@ -7876,13 +7876,13 @@
         <v>2.8</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I165" s="3">
         <v>1.2E-4</v>
@@ -7895,10 +7895,10 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N165" s="2">
         <v>0.03</v>
@@ -7921,13 +7921,13 @@
         <v>3</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I166" s="3">
         <v>3.7000000000000005E-5</v>
@@ -7940,10 +7940,10 @@
         <v>9.2500000000000012E-6</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N166" s="2">
         <v>0.03</v>
@@ -7966,13 +7966,13 @@
         <v>3.2</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I167" s="3">
         <v>3.8999999999999999E-5</v>
@@ -7985,10 +7985,10 @@
         <v>9.7499999999999998E-6</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N167" s="2">
         <v>0.03</v>
@@ -8011,13 +8011,13 @@
         <v>0.2</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I168" s="3">
         <v>8.7000000000000001E-4</v>
@@ -8030,10 +8030,10 @@
         <v>2.175E-4</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N168" s="2">
         <v>0.03</v>
@@ -8056,13 +8056,13 @@
         <v>0.4</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I169" s="3">
         <v>5.6999999999999998E-4</v>
@@ -8075,10 +8075,10 @@
         <v>1.4249999999999999E-4</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N169" s="2">
         <v>0.03</v>
@@ -8101,13 +8101,13 @@
         <v>0.6</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I170" s="3">
         <v>6.2E-4</v>
@@ -8120,10 +8120,10 @@
         <v>1.55E-4</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N170" s="2">
         <v>0.03</v>
@@ -8146,13 +8146,13 @@
         <v>0.8</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I171" s="3">
         <v>8.5000000000000006E-4</v>
@@ -8165,10 +8165,10 @@
         <v>2.1250000000000002E-4</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N171" s="2">
         <v>0.03</v>
@@ -8191,13 +8191,13 @@
         <v>1</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I172" s="3">
         <v>3.8000000000000002E-4</v>
@@ -8210,10 +8210,10 @@
         <v>9.5000000000000005E-5</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N172" s="2">
         <v>0.03</v>
@@ -8236,13 +8236,13 @@
         <v>1.2</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I173" s="3">
         <v>3.5000000000000005E-4</v>
@@ -8255,10 +8255,10 @@
         <v>8.7500000000000013E-5</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N173" s="2">
         <v>0.03</v>
@@ -8281,13 +8281,13 @@
         <v>1.4</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I174" s="3">
         <v>2.9E-4</v>
@@ -8300,10 +8300,10 @@
         <v>7.25E-5</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N174" s="2">
         <v>0.03</v>
@@ -8326,13 +8326,13 @@
         <v>1.6</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I175" s="3">
         <v>1.9000000000000001E-4</v>
@@ -8345,10 +8345,10 @@
         <v>4.7500000000000003E-5</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N175" s="2">
         <v>0.03</v>
@@ -8371,13 +8371,13 @@
         <v>1.8</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I176" s="3">
         <v>9.0000000000000006E-5</v>
@@ -8390,10 +8390,10 @@
         <v>2.2500000000000001E-5</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N176" s="2">
         <v>0.03</v>
@@ -8416,13 +8416,13 @@
         <v>2</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I177" s="3">
         <v>1.1E-4</v>
@@ -8435,10 +8435,10 @@
         <v>2.7500000000000001E-5</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N177" s="2">
         <v>0.03</v>
@@ -8461,13 +8461,13 @@
         <v>2.4</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I178" s="3">
         <v>5.700000000000001E-5</v>
@@ -8480,10 +8480,10 @@
         <v>1.4250000000000002E-5</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N178" s="2">
         <v>0.03</v>
@@ -8506,13 +8506,13 @@
         <v>2.6</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I179" s="3">
         <v>3.0000000000000001E-5</v>
@@ -8525,10 +8525,10 @@
         <v>7.5000000000000002E-6</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N179" s="2">
         <v>0.03</v>

--- a/proton_qT/expdata/12883.xlsx
+++ b/proton_qT/expdata/12883.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F116E854-A901-2C46-BC08-45D347CCC9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC34D1D0-53BF-C64B-8CFD-38EF4E4EC193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15000" xr2:uid="{A606F8B6-81B7-9948-8A71-8E6CCF832065}"/>
+    <workbookView xWindow="1580" yWindow="720" windowWidth="26840" windowHeight="16240" xr2:uid="{A606F8B6-81B7-9948-8A71-8E6CCF832065}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="19">
   <si>
     <t>E</t>
   </si>
@@ -460,11 +460,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7BD52A-19C4-3244-93CF-2775A72A46F5}">
-  <dimension ref="A1:N179"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -601,7 +599,7 @@
         <v>0.12</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K66" si="0">0.25*I3</f>
+        <f t="shared" ref="K3:K65" si="0">0.25*I3</f>
         <v>0.72000000000000008</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -2425,10 +2423,10 @@
         <v>7</v>
       </c>
       <c r="D44" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="E44" s="4">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>2</v>
@@ -2440,14 +2438,14 @@
         <v>9</v>
       </c>
       <c r="I44" s="3">
-        <v>-1.5000000000000002E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="J44" s="3">
-        <v>1.5000000000000002E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7500000000000006E-4</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>7</v>
@@ -2464,16 +2462,16 @@
         <v>400</v>
       </c>
       <c r="B45" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="4">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="E45" s="4">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>2</v>
@@ -2485,14 +2483,14 @@
         <v>9</v>
       </c>
       <c r="I45" s="3">
-        <v>1.2000000000000001E-3</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="J45" s="3">
-        <v>1.2000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" si="0"/>
-        <v>3.0000000000000003E-4</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>7</v>
@@ -2515,10 +2513,10 @@
         <v>8</v>
       </c>
       <c r="D46" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E46" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>2</v>
@@ -2530,14 +2528,14 @@
         <v>9</v>
       </c>
       <c r="I46" s="3">
-        <v>0.38200000000000001</v>
+        <v>0.35400000000000004</v>
       </c>
       <c r="J46" s="3">
-        <v>1.6E-2</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" si="0"/>
-        <v>9.5500000000000002E-2</v>
+        <v>8.8500000000000009E-2</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>7</v>
@@ -2560,10 +2558,10 @@
         <v>8</v>
       </c>
       <c r="D47" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E47" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>2</v>
@@ -2575,14 +2573,14 @@
         <v>9</v>
       </c>
       <c r="I47" s="3">
-        <v>0.35400000000000004</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="J47" s="3">
-        <v>9.0000000000000011E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K47" s="3">
         <f t="shared" si="0"/>
-        <v>8.8500000000000009E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>7</v>
@@ -2605,10 +2603,10 @@
         <v>8</v>
       </c>
       <c r="D48" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E48" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>2</v>
@@ -2620,14 +2618,14 @@
         <v>9</v>
       </c>
       <c r="I48" s="3">
-        <v>0.32800000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J48" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="K48" s="3">
         <f t="shared" si="0"/>
-        <v>8.2000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>7</v>
@@ -2650,10 +2648,10 @@
         <v>8</v>
       </c>
       <c r="D49" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E49" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>2</v>
@@ -2665,14 +2663,14 @@
         <v>9</v>
       </c>
       <c r="I49" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.221</v>
       </c>
       <c r="J49" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>5.525E-2</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>7</v>
@@ -2695,10 +2693,10 @@
         <v>8</v>
       </c>
       <c r="D50" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E50" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>2</v>
@@ -2710,14 +2708,14 @@
         <v>9</v>
       </c>
       <c r="I50" s="3">
-        <v>0.221</v>
+        <v>0.17</v>
       </c>
       <c r="J50" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>6.000000000000001E-3</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" si="0"/>
-        <v>5.525E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>7</v>
@@ -2740,10 +2738,10 @@
         <v>8</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E51" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>2</v>
@@ -2755,14 +2753,14 @@
         <v>9</v>
       </c>
       <c r="I51" s="3">
-        <v>0.17</v>
+        <v>0.125</v>
       </c>
       <c r="J51" s="3">
-        <v>6.000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" si="0"/>
-        <v>4.2500000000000003E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>7</v>
@@ -2785,10 +2783,10 @@
         <v>8</v>
       </c>
       <c r="D52" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E52" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>2</v>
@@ -2800,14 +2798,14 @@
         <v>9</v>
       </c>
       <c r="I52" s="3">
-        <v>0.125</v>
+        <v>8.6000000000000007E-2</v>
       </c>
       <c r="J52" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K52" s="3">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>2.1500000000000002E-2</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>7</v>
@@ -2830,10 +2828,10 @@
         <v>8</v>
       </c>
       <c r="D53" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E53" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>2</v>
@@ -2845,14 +2843,14 @@
         <v>9</v>
       </c>
       <c r="I53" s="3">
-        <v>8.6000000000000007E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J53" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000005E-3</v>
       </c>
       <c r="K53" s="3">
         <f t="shared" si="0"/>
-        <v>2.1500000000000002E-2</v>
+        <v>1.375E-2</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>7</v>
@@ -2875,10 +2873,10 @@
         <v>8</v>
       </c>
       <c r="D54" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E54" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>2</v>
@@ -2890,14 +2888,14 @@
         <v>9</v>
       </c>
       <c r="I54" s="3">
-        <v>5.5E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="J54" s="3">
         <v>3.0000000000000005E-3</v>
       </c>
       <c r="K54" s="3">
         <f t="shared" si="0"/>
-        <v>1.375E-2</v>
+        <v>1.175E-2</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>7</v>
@@ -2920,10 +2918,10 @@
         <v>8</v>
       </c>
       <c r="D55" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E55" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>2</v>
@@ -2935,14 +2933,14 @@
         <v>9</v>
       </c>
       <c r="I55" s="3">
-        <v>4.7E-2</v>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="J55" s="3">
-        <v>3.0000000000000005E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" si="0"/>
-        <v>1.175E-2</v>
+        <v>6.7500000000000008E-3</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>7</v>
@@ -2965,10 +2963,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E56" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>2</v>
@@ -2980,14 +2978,14 @@
         <v>9</v>
       </c>
       <c r="I56" s="3">
-        <v>2.7000000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J56" s="3">
         <v>2E-3</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" si="0"/>
-        <v>6.7500000000000008E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>7</v>
@@ -3010,10 +3008,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E57" s="4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>2</v>
@@ -3025,14 +3023,14 @@
         <v>9</v>
       </c>
       <c r="I57" s="3">
-        <v>0.02</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J57" s="3">
         <v>2E-3</v>
       </c>
       <c r="K57" s="3">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>7</v>
@@ -3055,10 +3053,10 @@
         <v>8</v>
       </c>
       <c r="D58" s="4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="E58" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>2</v>
@@ -3070,14 +3068,14 @@
         <v>9</v>
       </c>
       <c r="I58" s="3">
-        <v>1.4E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="J58" s="3">
-        <v>2E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="K58" s="3">
         <f t="shared" si="0"/>
-        <v>3.5000000000000001E-3</v>
+        <v>1.9250000000000001E-3</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>7</v>
@@ -3100,10 +3098,10 @@
         <v>8</v>
       </c>
       <c r="D59" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E59" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>2</v>
@@ -3115,14 +3113,14 @@
         <v>9</v>
       </c>
       <c r="I59" s="3">
-        <v>7.7000000000000002E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="J59" s="3">
-        <v>1.2000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="K59" s="3">
         <f t="shared" si="0"/>
-        <v>1.9250000000000001E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>7</v>
@@ -3145,10 +3143,10 @@
         <v>8</v>
       </c>
       <c r="D60" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E60" s="4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>2</v>
@@ -3160,14 +3158,14 @@
         <v>9</v>
       </c>
       <c r="I60" s="3">
-        <v>5.7999999999999996E-3</v>
+        <v>3.0000000000000005E-3</v>
       </c>
       <c r="J60" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="K60" s="3">
         <f t="shared" si="0"/>
-        <v>1.4499999999999999E-3</v>
+        <v>7.5000000000000012E-4</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>7</v>
@@ -3190,10 +3188,10 @@
         <v>8</v>
       </c>
       <c r="D61" s="4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E61" s="4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>2</v>
@@ -3205,14 +3203,14 @@
         <v>9</v>
       </c>
       <c r="I61" s="3">
-        <v>3.0000000000000005E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J61" s="3">
-        <v>7.000000000000001E-4</v>
+        <v>3.9999999999999996E-4</v>
       </c>
       <c r="K61" s="3">
         <f t="shared" si="0"/>
-        <v>7.5000000000000012E-4</v>
+        <v>2.7500000000000002E-4</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>7</v>
@@ -3235,10 +3233,10 @@
         <v>8</v>
       </c>
       <c r="D62" s="4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E62" s="4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>2</v>
@@ -3250,14 +3248,14 @@
         <v>9</v>
       </c>
       <c r="I62" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>2.4000000000000002E-3</v>
       </c>
       <c r="J62" s="3">
-        <v>3.9999999999999996E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" si="0"/>
-        <v>2.7500000000000002E-4</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>7</v>
@@ -3280,10 +3278,10 @@
         <v>8</v>
       </c>
       <c r="D63" s="4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="E63" s="4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>2</v>
@@ -3295,14 +3293,14 @@
         <v>9</v>
       </c>
       <c r="I63" s="3">
-        <v>2.4000000000000002E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J63" s="3">
         <v>7.000000000000001E-4</v>
       </c>
       <c r="K63" s="3">
         <f t="shared" si="0"/>
-        <v>6.0000000000000006E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>7</v>
@@ -3325,10 +3323,10 @@
         <v>8</v>
       </c>
       <c r="D64" s="4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="E64" s="4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>2</v>
@@ -3340,14 +3338,14 @@
         <v>9</v>
       </c>
       <c r="I64" s="3">
-        <v>2.2000000000000001E-3</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="J64" s="3">
-        <v>7.000000000000001E-4</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="K64" s="3">
         <f t="shared" si="0"/>
-        <v>5.5000000000000003E-4</v>
+        <v>2.3499999999999999E-4</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>7</v>
@@ -3370,10 +3368,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="E65" s="4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>2</v>
@@ -3385,14 +3383,14 @@
         <v>9</v>
       </c>
       <c r="I65" s="3">
-        <v>9.3999999999999997E-4</v>
+        <v>2.6000000000000003E-4</v>
       </c>
       <c r="J65" s="3">
-        <v>4.6999999999999999E-4</v>
+        <v>2.7E-4</v>
       </c>
       <c r="K65" s="3">
         <f t="shared" si="0"/>
-        <v>2.3499999999999999E-4</v>
+        <v>6.5000000000000008E-5</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>7</v>
@@ -3415,10 +3413,10 @@
         <v>8</v>
       </c>
       <c r="D66" s="4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="E66" s="4">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>2</v>
@@ -3433,10 +3431,10 @@
         <v>2.6000000000000003E-4</v>
       </c>
       <c r="J66" s="3">
-        <v>2.7E-4</v>
+        <v>2.6000000000000003E-4</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K66:K129" si="1">0.25*I66</f>
         <v>6.5000000000000008E-5</v>
       </c>
       <c r="L66" s="2" t="s">
@@ -3460,10 +3458,10 @@
         <v>8</v>
       </c>
       <c r="D67" s="4">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E67" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>2</v>
@@ -3475,14 +3473,14 @@
         <v>9</v>
       </c>
       <c r="I67" s="3">
-        <v>2.6000000000000003E-4</v>
+        <v>2.8000000000000003E-4</v>
       </c>
       <c r="J67" s="3">
-        <v>2.6000000000000003E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" ref="K67:K130" si="1">0.25*I67</f>
-        <v>6.5000000000000008E-5</v>
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>7</v>
@@ -3505,10 +3503,10 @@
         <v>8</v>
       </c>
       <c r="D68" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E68" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>2</v>
@@ -3520,14 +3518,14 @@
         <v>9</v>
       </c>
       <c r="I68" s="3">
-        <v>2.8000000000000003E-4</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="J68" s="3">
-        <v>4.8000000000000001E-4</v>
+        <v>3.9999999999999996E-4</v>
       </c>
       <c r="K68" s="3">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-5</v>
+        <v>1.4249999999999999E-4</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>7</v>
@@ -3544,16 +3542,16 @@
         <v>400</v>
       </c>
       <c r="B69" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="4">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>2</v>
@@ -3565,14 +3563,14 @@
         <v>9</v>
       </c>
       <c r="I69" s="3">
-        <v>5.6999999999999998E-4</v>
+        <v>0.158</v>
       </c>
       <c r="J69" s="3">
-        <v>3.9999999999999996E-4</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="K69" s="3">
         <f t="shared" si="1"/>
-        <v>1.4249999999999999E-4</v>
+        <v>3.95E-2</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>7</v>
@@ -3595,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="D70" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E70" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>2</v>
@@ -3610,14 +3608,14 @@
         <v>9</v>
       </c>
       <c r="I70" s="3">
-        <v>0.158</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="J70" s="3">
-        <v>9.0000000000000011E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K70" s="3">
         <f t="shared" si="1"/>
-        <v>3.95E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>7</v>
@@ -3640,10 +3638,10 @@
         <v>9</v>
       </c>
       <c r="D71" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E71" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>2</v>
@@ -3655,14 +3653,14 @@
         <v>9</v>
       </c>
       <c r="I71" s="3">
-        <v>0.13800000000000001</v>
+        <v>0.122</v>
       </c>
       <c r="J71" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K71" s="3">
         <f t="shared" si="1"/>
-        <v>3.4500000000000003E-2</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>7</v>
@@ -3685,10 +3683,10 @@
         <v>9</v>
       </c>
       <c r="D72" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E72" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>2</v>
@@ -3700,14 +3698,14 @@
         <v>9</v>
       </c>
       <c r="I72" s="3">
-        <v>0.122</v>
+        <v>0.112</v>
       </c>
       <c r="J72" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K72" s="3">
         <f t="shared" si="1"/>
-        <v>3.0499999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>7</v>
@@ -3730,10 +3728,10 @@
         <v>9</v>
       </c>
       <c r="D73" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E73" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>2</v>
@@ -3745,14 +3743,14 @@
         <v>9</v>
       </c>
       <c r="I73" s="3">
-        <v>0.112</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J73" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000005E-3</v>
       </c>
       <c r="K73" s="3">
         <f t="shared" si="1"/>
-        <v>2.8000000000000001E-2</v>
+        <v>2.0750000000000001E-2</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>7</v>
@@ -3775,10 +3773,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E74" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>2</v>
@@ -3790,14 +3788,14 @@
         <v>9</v>
       </c>
       <c r="I74" s="3">
-        <v>8.3000000000000004E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="J74" s="3">
         <v>3.0000000000000005E-3</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" si="1"/>
-        <v>2.0750000000000001E-2</v>
+        <v>1.575E-2</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>7</v>
@@ -3820,10 +3818,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E75" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>2</v>
@@ -3835,14 +3833,14 @@
         <v>9</v>
       </c>
       <c r="I75" s="3">
-        <v>6.3E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="J75" s="3">
-        <v>3.0000000000000005E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="K75" s="3">
         <f t="shared" si="1"/>
-        <v>1.575E-2</v>
+        <v>1.175E-2</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>7</v>
@@ -3865,10 +3863,10 @@
         <v>9</v>
       </c>
       <c r="D76" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E76" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>2</v>
@@ -3880,14 +3878,14 @@
         <v>9</v>
       </c>
       <c r="I76" s="3">
-        <v>4.7E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J76" s="3">
         <v>2E-3</v>
       </c>
       <c r="K76" s="3">
         <f t="shared" si="1"/>
-        <v>1.175E-2</v>
+        <v>9.75E-3</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>7</v>
@@ -3910,10 +3908,10 @@
         <v>9</v>
       </c>
       <c r="D77" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E77" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>2</v>
@@ -3925,14 +3923,14 @@
         <v>9</v>
       </c>
       <c r="I77" s="3">
-        <v>3.9E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="J77" s="3">
         <v>2E-3</v>
       </c>
       <c r="K77" s="3">
         <f t="shared" si="1"/>
-        <v>9.75E-3</v>
+        <v>5.7499999999999999E-3</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>7</v>
@@ -3955,10 +3953,10 @@
         <v>9</v>
       </c>
       <c r="D78" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E78" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>2</v>
@@ -3970,14 +3968,14 @@
         <v>9</v>
       </c>
       <c r="I78" s="3">
-        <v>2.3E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="J78" s="3">
-        <v>2E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="1"/>
-        <v>5.7499999999999999E-3</v>
+        <v>4.2750000000000002E-3</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>7</v>
@@ -4000,10 +3998,10 @@
         <v>9</v>
       </c>
       <c r="D79" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E79" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>2</v>
@@ -4015,14 +4013,14 @@
         <v>9</v>
       </c>
       <c r="I79" s="3">
-        <v>1.7100000000000001E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="J79" s="3">
-        <v>1.2000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="K79" s="3">
         <f t="shared" si="1"/>
-        <v>4.2750000000000002E-3</v>
+        <v>2.3749999999999999E-3</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>7</v>
@@ -4045,10 +4043,10 @@
         <v>9</v>
       </c>
       <c r="D80" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E80" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>2</v>
@@ -4060,14 +4058,14 @@
         <v>9</v>
       </c>
       <c r="I80" s="3">
-        <v>9.4999999999999998E-3</v>
+        <v>7.2000000000000007E-3</v>
       </c>
       <c r="J80" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="K80" s="3">
         <f t="shared" si="1"/>
-        <v>2.3749999999999999E-3</v>
+        <v>1.8000000000000002E-3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>7</v>
@@ -4090,10 +4088,10 @@
         <v>9</v>
       </c>
       <c r="D81" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E81" s="4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>2</v>
@@ -4105,14 +4103,14 @@
         <v>9</v>
       </c>
       <c r="I81" s="3">
-        <v>7.2000000000000007E-3</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="J81" s="3">
-        <v>9.0000000000000008E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="K81" s="3">
         <f t="shared" si="1"/>
-        <v>1.8000000000000002E-3</v>
+        <v>9.7500000000000006E-4</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>7</v>
@@ -4135,10 +4133,10 @@
         <v>9</v>
       </c>
       <c r="D82" s="4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="E82" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>2</v>
@@ -4150,14 +4148,14 @@
         <v>9</v>
       </c>
       <c r="I82" s="3">
-        <v>3.9000000000000003E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="J82" s="3">
-        <v>7.000000000000001E-4</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="K82" s="3">
         <f t="shared" si="1"/>
-        <v>9.7500000000000006E-4</v>
+        <v>8.25E-4</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>7</v>
@@ -4180,10 +4178,10 @@
         <v>9</v>
       </c>
       <c r="D83" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E83" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>2</v>
@@ -4195,14 +4193,14 @@
         <v>9</v>
       </c>
       <c r="I83" s="3">
-        <v>3.3E-3</v>
+        <v>1.5999999999999999E-3</v>
       </c>
       <c r="J83" s="3">
-        <v>6.0000000000000006E-4</v>
+        <v>3.9999999999999996E-4</v>
       </c>
       <c r="K83" s="3">
         <f t="shared" si="1"/>
-        <v>8.25E-4</v>
+        <v>3.9999999999999996E-4</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>7</v>
@@ -4225,10 +4223,10 @@
         <v>9</v>
       </c>
       <c r="D84" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E84" s="4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>2</v>
@@ -4240,14 +4238,14 @@
         <v>9</v>
       </c>
       <c r="I84" s="3">
-        <v>1.5999999999999999E-3</v>
+        <v>8.4000000000000014E-4</v>
       </c>
       <c r="J84" s="3">
-        <v>3.9999999999999996E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" si="1"/>
-        <v>3.9999999999999996E-4</v>
+        <v>2.1000000000000004E-4</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>7</v>
@@ -4270,10 +4268,10 @@
         <v>9</v>
       </c>
       <c r="D85" s="4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E85" s="4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>2</v>
@@ -4285,14 +4283,14 @@
         <v>9</v>
       </c>
       <c r="I85" s="3">
-        <v>8.4000000000000014E-4</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="J85" s="3">
-        <v>3.6000000000000002E-4</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="K85" s="3">
         <f t="shared" si="1"/>
-        <v>2.1000000000000004E-4</v>
+        <v>2.075E-4</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>7</v>
@@ -4315,10 +4313,10 @@
         <v>9</v>
       </c>
       <c r="D86" s="4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E86" s="4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>2</v>
@@ -4330,14 +4328,14 @@
         <v>9</v>
       </c>
       <c r="I86" s="3">
-        <v>8.3000000000000001E-4</v>
+        <v>2.6000000000000003E-4</v>
       </c>
       <c r="J86" s="3">
-        <v>3.2000000000000003E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="K86" s="3">
         <f t="shared" si="1"/>
-        <v>2.075E-4</v>
+        <v>6.5000000000000008E-5</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>7</v>
@@ -4360,10 +4358,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="E87" s="4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>2</v>
@@ -4375,14 +4373,14 @@
         <v>9</v>
       </c>
       <c r="I87" s="3">
-        <v>2.6000000000000003E-4</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="J87" s="3">
-        <v>1.8000000000000001E-4</v>
+        <v>2.8000000000000003E-4</v>
       </c>
       <c r="K87" s="3">
         <f t="shared" si="1"/>
-        <v>6.5000000000000008E-5</v>
+        <v>1.5750000000000001E-4</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>7</v>
@@ -4405,10 +4403,10 @@
         <v>9</v>
       </c>
       <c r="D88" s="4">
-        <v>3.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E88" s="4">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>2</v>
@@ -4420,14 +4418,14 @@
         <v>9</v>
       </c>
       <c r="I88" s="3">
-        <v>6.3000000000000003E-4</v>
+        <v>1.5000000000000001E-4</v>
       </c>
       <c r="J88" s="3">
-        <v>2.8000000000000003E-4</v>
+        <v>1.5000000000000001E-4</v>
       </c>
       <c r="K88" s="3">
         <f t="shared" si="1"/>
-        <v>1.5750000000000001E-4</v>
+        <v>3.7500000000000003E-5</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>7</v>
@@ -4444,16 +4442,16 @@
         <v>400</v>
       </c>
       <c r="B89" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" s="4">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="E89" s="4">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>2</v>
@@ -4465,14 +4463,14 @@
         <v>9</v>
       </c>
       <c r="I89" s="3">
-        <v>1.5000000000000001E-4</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J89" s="3">
-        <v>1.5000000000000001E-4</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K89" s="3">
         <f t="shared" si="1"/>
-        <v>3.7500000000000003E-5</v>
+        <v>2.9250000000000002E-2</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>7</v>
@@ -4495,10 +4493,10 @@
         <v>10</v>
       </c>
       <c r="D90" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E90" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>2</v>
@@ -4510,14 +4508,14 @@
         <v>9</v>
       </c>
       <c r="I90" s="3">
-        <v>0.11700000000000001</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="J90" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K90" s="3">
         <f t="shared" si="1"/>
-        <v>2.9250000000000002E-2</v>
+        <v>2.9749999999999999E-2</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>7</v>
@@ -4540,10 +4538,10 @@
         <v>10</v>
       </c>
       <c r="D91" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E91" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>2</v>
@@ -4555,14 +4553,14 @@
         <v>9</v>
       </c>
       <c r="I91" s="3">
-        <v>0.11899999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="J91" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K91" s="3">
         <f t="shared" si="1"/>
-        <v>2.9749999999999999E-2</v>
+        <v>2.725E-2</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>7</v>
@@ -4585,10 +4583,10 @@
         <v>10</v>
       </c>
       <c r="D92" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E92" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>2</v>
@@ -4600,14 +4598,14 @@
         <v>9</v>
       </c>
       <c r="I92" s="3">
-        <v>0.109</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J92" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000005E-3</v>
       </c>
       <c r="K92" s="3">
         <f t="shared" si="1"/>
-        <v>2.725E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>7</v>
@@ -4630,10 +4628,10 @@
         <v>10</v>
       </c>
       <c r="D93" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E93" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>2</v>
@@ -4645,14 +4643,14 @@
         <v>9</v>
       </c>
       <c r="I93" s="3">
-        <v>9.4E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="J93" s="3">
         <v>3.0000000000000005E-3</v>
       </c>
       <c r="K93" s="3">
         <f t="shared" si="1"/>
-        <v>2.35E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>7</v>
@@ -4675,10 +4673,10 @@
         <v>10</v>
       </c>
       <c r="D94" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E94" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>2</v>
@@ -4690,14 +4688,14 @@
         <v>9</v>
       </c>
       <c r="I94" s="3">
-        <v>7.8E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J94" s="3">
-        <v>3.0000000000000005E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="K94" s="3">
         <f t="shared" si="1"/>
-        <v>1.95E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>7</v>
@@ -4720,10 +4718,10 @@
         <v>10</v>
       </c>
       <c r="D95" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E95" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>2</v>
@@ -4735,14 +4733,14 @@
         <v>9</v>
       </c>
       <c r="I95" s="3">
-        <v>0.05</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="J95" s="3">
         <v>2E-3</v>
       </c>
       <c r="K95" s="3">
         <f t="shared" si="1"/>
-        <v>1.2500000000000001E-2</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>7</v>
@@ -4765,10 +4763,10 @@
         <v>10</v>
       </c>
       <c r="D96" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E96" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>2</v>
@@ -4780,14 +4778,14 @@
         <v>9</v>
       </c>
       <c r="I96" s="3">
-        <v>4.4000000000000004E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J96" s="3">
         <v>2E-3</v>
       </c>
       <c r="K96" s="3">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001E-2</v>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>7</v>
@@ -4810,10 +4808,10 @@
         <v>10</v>
       </c>
       <c r="D97" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E97" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>2</v>
@@ -4825,14 +4823,14 @@
         <v>9</v>
       </c>
       <c r="I97" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="J97" s="3">
         <v>2E-3</v>
       </c>
       <c r="K97" s="3">
         <f t="shared" si="1"/>
-        <v>8.2500000000000004E-3</v>
+        <v>5.7499999999999999E-3</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>7</v>
@@ -4855,10 +4853,10 @@
         <v>10</v>
       </c>
       <c r="D98" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E98" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>2</v>
@@ -4870,14 +4868,14 @@
         <v>9</v>
       </c>
       <c r="I98" s="3">
-        <v>2.3E-2</v>
+        <v>1.5099999999999999E-2</v>
       </c>
       <c r="J98" s="3">
-        <v>2E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="K98" s="3">
         <f t="shared" si="1"/>
-        <v>5.7499999999999999E-3</v>
+        <v>3.7749999999999997E-3</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>7</v>
@@ -4900,10 +4898,10 @@
         <v>10</v>
       </c>
       <c r="D99" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E99" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>2</v>
@@ -4915,14 +4913,14 @@
         <v>9</v>
       </c>
       <c r="I99" s="3">
-        <v>1.5099999999999999E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="J99" s="3">
-        <v>1.2000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="K99" s="3">
         <f t="shared" si="1"/>
-        <v>3.7749999999999997E-3</v>
+        <v>3.0500000000000002E-3</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>7</v>
@@ -4945,10 +4943,10 @@
         <v>10</v>
       </c>
       <c r="D100" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E100" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>2</v>
@@ -4960,14 +4958,14 @@
         <v>9</v>
       </c>
       <c r="I100" s="3">
-        <v>1.2200000000000001E-2</v>
+        <v>7.8000000000000005E-3</v>
       </c>
       <c r="J100" s="3">
-        <v>1.1000000000000001E-3</v>
+        <v>9.0000000000000008E-4</v>
       </c>
       <c r="K100" s="3">
         <f t="shared" si="1"/>
-        <v>3.0500000000000002E-3</v>
+        <v>1.9500000000000001E-3</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>7</v>
@@ -4990,10 +4988,10 @@
         <v>10</v>
       </c>
       <c r="D101" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E101" s="4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>2</v>
@@ -5005,14 +5003,14 @@
         <v>9</v>
       </c>
       <c r="I101" s="3">
-        <v>7.8000000000000005E-3</v>
+        <v>5.6000000000000008E-3</v>
       </c>
       <c r="J101" s="3">
-        <v>9.0000000000000008E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="K101" s="3">
         <f t="shared" si="1"/>
-        <v>1.9500000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>7</v>
@@ -5035,10 +5033,10 @@
         <v>10</v>
       </c>
       <c r="D102" s="4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="E102" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>2</v>
@@ -5050,14 +5048,14 @@
         <v>9</v>
       </c>
       <c r="I102" s="3">
-        <v>5.6000000000000008E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="J102" s="3">
-        <v>7.000000000000001E-4</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="K102" s="3">
         <f t="shared" si="1"/>
-        <v>1.4000000000000002E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>7</v>
@@ -5080,10 +5078,10 @@
         <v>10</v>
       </c>
       <c r="D103" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E103" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>2</v>
@@ -5095,14 +5093,14 @@
         <v>9</v>
       </c>
       <c r="I103" s="3">
-        <v>4.4000000000000003E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J103" s="3">
-        <v>6.0000000000000006E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K103" s="3">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001E-3</v>
+        <v>7.2499999999999995E-4</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>7</v>
@@ -5125,10 +5123,10 @@
         <v>10</v>
       </c>
       <c r="D104" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E104" s="4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>2</v>
@@ -5140,14 +5138,14 @@
         <v>9</v>
       </c>
       <c r="I104" s="3">
-        <v>2.8999999999999998E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="J104" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="K104" s="3">
         <f t="shared" si="1"/>
-        <v>7.2499999999999995E-4</v>
+        <v>3.8749999999999999E-4</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>7</v>
@@ -5170,10 +5168,10 @@
         <v>10</v>
       </c>
       <c r="D105" s="4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E105" s="4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>2</v>
@@ -5185,14 +5183,14 @@
         <v>9</v>
       </c>
       <c r="I105" s="3">
-        <v>1.5499999999999999E-3</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="J105" s="3">
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="K105" s="3">
         <f t="shared" si="1"/>
-        <v>3.8749999999999999E-4</v>
+        <v>3.4499999999999998E-4</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>7</v>
@@ -5215,10 +5213,10 @@
         <v>10</v>
       </c>
       <c r="D106" s="4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E106" s="4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>2</v>
@@ -5230,14 +5228,14 @@
         <v>9</v>
       </c>
       <c r="I106" s="3">
-        <v>1.3799999999999999E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="J106" s="3">
-        <v>3.6000000000000002E-4</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="K106" s="3">
         <f t="shared" si="1"/>
-        <v>3.4499999999999998E-4</v>
+        <v>2.6249999999999998E-4</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>7</v>
@@ -5260,10 +5258,10 @@
         <v>10</v>
       </c>
       <c r="D107" s="4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="E107" s="4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>2</v>
@@ -5275,14 +5273,14 @@
         <v>9</v>
       </c>
       <c r="I107" s="3">
-        <v>1.0499999999999999E-3</v>
+        <v>7.1000000000000002E-4</v>
       </c>
       <c r="J107" s="3">
-        <v>3.2000000000000003E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="K107" s="3">
         <f t="shared" si="1"/>
-        <v>2.6249999999999998E-4</v>
+        <v>1.775E-4</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>7</v>
@@ -5305,10 +5303,10 @@
         <v>10</v>
       </c>
       <c r="D108" s="4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="E108" s="4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>2</v>
@@ -5320,14 +5318,14 @@
         <v>9</v>
       </c>
       <c r="I108" s="3">
-        <v>7.1000000000000002E-4</v>
+        <v>4.4000000000000002E-4</v>
       </c>
       <c r="J108" s="3">
-        <v>2.5000000000000001E-4</v>
+        <v>1.9999999999999998E-4</v>
       </c>
       <c r="K108" s="3">
         <f t="shared" si="1"/>
-        <v>1.775E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>7</v>
@@ -5350,10 +5348,10 @@
         <v>10</v>
       </c>
       <c r="D109" s="4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="E109" s="4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>2</v>
@@ -5365,14 +5363,14 @@
         <v>9</v>
       </c>
       <c r="I109" s="3">
-        <v>4.4000000000000002E-4</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="J109" s="3">
-        <v>1.9999999999999998E-4</v>
+        <v>2.1000000000000004E-4</v>
       </c>
       <c r="K109" s="3">
         <f t="shared" si="1"/>
-        <v>1.1E-4</v>
+        <v>1.2750000000000001E-4</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>7</v>
@@ -5395,10 +5393,10 @@
         <v>10</v>
       </c>
       <c r="D110" s="4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="E110" s="4">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>2</v>
@@ -5410,14 +5408,14 @@
         <v>9</v>
       </c>
       <c r="I110" s="3">
-        <v>5.1000000000000004E-4</v>
+        <v>2.1000000000000004E-4</v>
       </c>
       <c r="J110" s="3">
-        <v>2.1000000000000004E-4</v>
+        <v>1.5000000000000001E-4</v>
       </c>
       <c r="K110" s="3">
         <f t="shared" si="1"/>
-        <v>1.2750000000000001E-4</v>
+        <v>5.2500000000000009E-5</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>7</v>
@@ -5440,10 +5438,10 @@
         <v>10</v>
       </c>
       <c r="D111" s="4">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E111" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>2</v>
@@ -5455,14 +5453,14 @@
         <v>9</v>
       </c>
       <c r="I111" s="3">
-        <v>2.1000000000000004E-4</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="J111" s="3">
-        <v>1.5000000000000001E-4</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="K111" s="3">
         <f t="shared" si="1"/>
-        <v>5.2500000000000009E-5</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>7</v>
@@ -5479,16 +5477,16 @@
         <v>400</v>
       </c>
       <c r="B112" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112" s="4">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E112" s="4">
-        <v>4.5999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>2</v>
@@ -5500,14 +5498,14 @@
         <v>9</v>
       </c>
       <c r="I112" s="3">
-        <v>3.8000000000000002E-4</v>
+        <v>3.6500000000000005E-2</v>
       </c>
       <c r="J112" s="3">
-        <v>1.9000000000000001E-4</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="K112" s="3">
         <f t="shared" si="1"/>
-        <v>9.5000000000000005E-5</v>
+        <v>9.1250000000000012E-3</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>7</v>
@@ -5530,10 +5528,10 @@
         <v>11</v>
       </c>
       <c r="D113" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E113" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>2</v>
@@ -5545,14 +5543,14 @@
         <v>9</v>
       </c>
       <c r="I113" s="3">
-        <v>3.6500000000000005E-2</v>
+        <v>3.78E-2</v>
       </c>
       <c r="J113" s="3">
-        <v>4.1999999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="K113" s="3">
         <f t="shared" si="1"/>
-        <v>9.1250000000000012E-3</v>
+        <v>9.4500000000000001E-3</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>7</v>
@@ -5575,10 +5573,10 @@
         <v>11</v>
       </c>
       <c r="D114" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E114" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>2</v>
@@ -5590,14 +5588,14 @@
         <v>9</v>
       </c>
       <c r="I114" s="3">
-        <v>3.78E-2</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="J114" s="3">
-        <v>2.5000000000000001E-3</v>
+        <v>1.9000000000000002E-3</v>
       </c>
       <c r="K114" s="3">
         <f t="shared" si="1"/>
-        <v>9.4500000000000001E-3</v>
+        <v>8.0750000000000006E-3</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>7</v>
@@ -5620,10 +5618,10 @@
         <v>11</v>
       </c>
       <c r="D115" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E115" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>2</v>
@@ -5635,14 +5633,14 @@
         <v>9</v>
       </c>
       <c r="I115" s="3">
-        <v>3.2300000000000002E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="J115" s="3">
-        <v>1.9000000000000002E-3</v>
+        <v>1.5999999999999999E-3</v>
       </c>
       <c r="K115" s="3">
         <f t="shared" si="1"/>
-        <v>8.0750000000000006E-3</v>
+        <v>6.4250000000000002E-3</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>7</v>
@@ -5665,10 +5663,10 @@
         <v>11</v>
       </c>
       <c r="D116" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E116" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>2</v>
@@ -5680,14 +5678,14 @@
         <v>9</v>
       </c>
       <c r="I116" s="3">
-        <v>2.5700000000000001E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="J116" s="3">
-        <v>1.5999999999999999E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="K116" s="3">
         <f t="shared" si="1"/>
-        <v>6.4250000000000002E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>7</v>
@@ -5710,10 +5708,10 @@
         <v>11</v>
       </c>
       <c r="D117" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E117" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>2</v>
@@ -5725,14 +5723,14 @@
         <v>9</v>
       </c>
       <c r="I117" s="3">
-        <v>2.3199999999999998E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="J117" s="3">
-        <v>1.4000000000000002E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="K117" s="3">
         <f t="shared" si="1"/>
-        <v>5.7999999999999996E-3</v>
+        <v>4.9750000000000003E-3</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>7</v>
@@ -5755,10 +5753,10 @@
         <v>11</v>
       </c>
       <c r="D118" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E118" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>2</v>
@@ -5770,14 +5768,14 @@
         <v>9</v>
       </c>
       <c r="I118" s="3">
-        <v>1.9900000000000001E-2</v>
+        <v>1.2799999999999999E-2</v>
       </c>
       <c r="J118" s="3">
-        <v>1.2999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="K118" s="3">
         <f t="shared" si="1"/>
-        <v>4.9750000000000003E-3</v>
+        <v>3.1999999999999997E-3</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>7</v>
@@ -5800,10 +5798,10 @@
         <v>11</v>
       </c>
       <c r="D119" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E119" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>2</v>
@@ -5815,14 +5813,14 @@
         <v>9</v>
       </c>
       <c r="I119" s="3">
-        <v>1.2799999999999999E-2</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="J119" s="3">
-        <v>1E-3</v>
+        <v>7.9999999999999993E-4</v>
       </c>
       <c r="K119" s="3">
         <f t="shared" si="1"/>
-        <v>3.1999999999999997E-3</v>
+        <v>2.0500000000000002E-3</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>7</v>
@@ -5845,10 +5843,10 @@
         <v>11</v>
       </c>
       <c r="D120" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E120" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>2</v>
@@ -5860,14 +5858,14 @@
         <v>9</v>
       </c>
       <c r="I120" s="3">
-        <v>8.2000000000000007E-3</v>
+        <v>6.000000000000001E-3</v>
       </c>
       <c r="J120" s="3">
-        <v>7.9999999999999993E-4</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="K120" s="3">
         <f t="shared" si="1"/>
-        <v>2.0500000000000002E-3</v>
+        <v>1.5000000000000002E-3</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>7</v>
@@ -5890,10 +5888,10 @@
         <v>11</v>
       </c>
       <c r="D121" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E121" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>2</v>
@@ -5905,14 +5903,14 @@
         <v>9</v>
       </c>
       <c r="I121" s="3">
-        <v>6.000000000000001E-3</v>
+        <v>4.8000000000000004E-3</v>
       </c>
       <c r="J121" s="3">
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="K121" s="3">
         <f t="shared" si="1"/>
-        <v>1.5000000000000002E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>7</v>
@@ -5935,10 +5933,10 @@
         <v>11</v>
       </c>
       <c r="D122" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E122" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>2</v>
@@ -5950,14 +5948,14 @@
         <v>9</v>
       </c>
       <c r="I122" s="3">
-        <v>4.8000000000000004E-3</v>
+        <v>3.1999999999999997E-3</v>
       </c>
       <c r="J122" s="3">
-        <v>6.0000000000000006E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K122" s="3">
         <f t="shared" si="1"/>
-        <v>1.2000000000000001E-3</v>
+        <v>7.9999999999999993E-4</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>7</v>
@@ -5980,10 +5978,10 @@
         <v>11</v>
       </c>
       <c r="D123" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E123" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>2</v>
@@ -5995,14 +5993,14 @@
         <v>9</v>
       </c>
       <c r="I123" s="3">
-        <v>3.1999999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J123" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>3.9999999999999996E-4</v>
       </c>
       <c r="K123" s="3">
         <f t="shared" si="1"/>
-        <v>7.9999999999999993E-4</v>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="L123" s="2" t="s">
         <v>7</v>
@@ -6025,10 +6023,10 @@
         <v>11</v>
       </c>
       <c r="D124" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E124" s="4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>2</v>
@@ -6040,14 +6038,14 @@
         <v>9</v>
       </c>
       <c r="I124" s="3">
-        <v>2.5000000000000001E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="J124" s="3">
-        <v>3.9999999999999996E-4</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="K124" s="3">
         <f t="shared" si="1"/>
-        <v>6.2500000000000001E-4</v>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>7</v>
@@ -6070,10 +6068,10 @@
         <v>11</v>
       </c>
       <c r="D125" s="4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="E125" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>2</v>
@@ -6085,14 +6083,14 @@
         <v>9</v>
       </c>
       <c r="I125" s="3">
-        <v>1.4000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J125" s="3">
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="K125" s="3">
         <f t="shared" si="1"/>
-        <v>3.5000000000000005E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>7</v>
@@ -6115,10 +6113,10 @@
         <v>11</v>
       </c>
       <c r="D126" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E126" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>2</v>
@@ -6160,10 +6158,10 @@
         <v>11</v>
       </c>
       <c r="D127" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E127" s="4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>2</v>
@@ -6175,14 +6173,14 @@
         <v>9</v>
       </c>
       <c r="I127" s="3">
-        <v>1E-3</v>
+        <v>2.8000000000000003E-4</v>
       </c>
       <c r="J127" s="3">
-        <v>3.0000000000000003E-4</v>
+        <v>1.4000000000000001E-4</v>
       </c>
       <c r="K127" s="3">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-4</v>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>7</v>
@@ -6205,10 +6203,10 @@
         <v>11</v>
       </c>
       <c r="D128" s="4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E128" s="4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>2</v>
@@ -6220,14 +6218,14 @@
         <v>9</v>
       </c>
       <c r="I128" s="3">
-        <v>2.8000000000000003E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="J128" s="3">
-        <v>1.4000000000000001E-4</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="K128" s="3">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-5</v>
+        <v>1.45E-4</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>7</v>
@@ -6250,10 +6248,10 @@
         <v>11</v>
       </c>
       <c r="D129" s="4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E129" s="4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>2</v>
@@ -6265,14 +6263,14 @@
         <v>9</v>
       </c>
       <c r="I129" s="3">
-        <v>5.8E-4</v>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="J129" s="3">
-        <v>2.2000000000000001E-4</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="K129" s="3">
         <f t="shared" si="1"/>
-        <v>1.45E-4</v>
+        <v>8.7500000000000013E-5</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>7</v>
@@ -6295,10 +6293,10 @@
         <v>11</v>
       </c>
       <c r="D130" s="4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="E130" s="4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>2</v>
@@ -6310,14 +6308,14 @@
         <v>9</v>
       </c>
       <c r="I130" s="3">
-        <v>3.5000000000000005E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="J130" s="3">
-        <v>1.6000000000000001E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="1"/>
-        <v>8.7500000000000013E-5</v>
+        <f t="shared" ref="K130:K178" si="2">0.25*I130</f>
+        <v>1.5E-5</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>7</v>
@@ -6340,10 +6338,10 @@
         <v>11</v>
       </c>
       <c r="D131" s="4">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="E131" s="4">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>2</v>
@@ -6355,14 +6353,14 @@
         <v>9</v>
       </c>
       <c r="I131" s="3">
-        <v>6.0000000000000002E-5</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="J131" s="3">
-        <v>6.0000000000000002E-5</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="K131" s="3">
-        <f t="shared" ref="K131:K179" si="2">0.25*I131</f>
-        <v>1.5E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>7</v>
@@ -6385,10 +6383,10 @@
         <v>11</v>
       </c>
       <c r="D132" s="4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="E132" s="4">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>2</v>
@@ -6400,14 +6398,14 @@
         <v>9</v>
       </c>
       <c r="I132" s="3">
-        <v>8.0000000000000007E-5</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="J132" s="3">
-        <v>8.0000000000000007E-5</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="K132" s="3">
         <f t="shared" si="2"/>
-        <v>2.0000000000000002E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>7</v>
@@ -6430,10 +6428,10 @@
         <v>11</v>
       </c>
       <c r="D133" s="4">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E133" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>2</v>
@@ -6445,14 +6443,14 @@
         <v>9</v>
       </c>
       <c r="I133" s="3">
-        <v>1.6000000000000001E-4</v>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="J133" s="3">
-        <v>1.6000000000000001E-4</v>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="K133" s="3">
         <f t="shared" si="2"/>
-        <v>4.0000000000000003E-5</v>
+        <v>1.7500000000000002E-5</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>7</v>
@@ -6469,16 +6467,16 @@
         <v>400</v>
       </c>
       <c r="B134" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C134" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D134" s="4">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E134" s="4">
-        <v>4.5999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>2</v>
@@ -6490,14 +6488,14 @@
         <v>9</v>
       </c>
       <c r="I134" s="3">
-        <v>7.0000000000000007E-5</v>
+        <v>9.9299999999999996E-3</v>
       </c>
       <c r="J134" s="3">
-        <v>7.0000000000000007E-5</v>
+        <v>2.14E-3</v>
       </c>
       <c r="K134" s="3">
         <f t="shared" si="2"/>
-        <v>1.7500000000000002E-5</v>
+        <v>2.4824999999999999E-3</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>7</v>
@@ -6520,10 +6518,10 @@
         <v>12</v>
       </c>
       <c r="D135" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E135" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>2</v>
@@ -6535,14 +6533,14 @@
         <v>9</v>
       </c>
       <c r="I135" s="3">
-        <v>9.9299999999999996E-3</v>
+        <v>6.9900000000000006E-3</v>
       </c>
       <c r="J135" s="3">
-        <v>2.14E-3</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="K135" s="3">
         <f t="shared" si="2"/>
-        <v>2.4824999999999999E-3</v>
+        <v>1.7475000000000001E-3</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>7</v>
@@ -6565,10 +6563,10 @@
         <v>12</v>
       </c>
       <c r="D136" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E136" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>2</v>
@@ -6580,14 +6578,14 @@
         <v>9</v>
       </c>
       <c r="I136" s="3">
-        <v>6.9900000000000006E-3</v>
+        <v>7.5300000000000011E-3</v>
       </c>
       <c r="J136" s="3">
-        <v>9.7000000000000005E-4</v>
+        <v>8.6000000000000009E-4</v>
       </c>
       <c r="K136" s="3">
         <f t="shared" si="2"/>
-        <v>1.7475000000000001E-3</v>
+        <v>1.8825000000000003E-3</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>7</v>
@@ -6610,10 +6608,10 @@
         <v>12</v>
       </c>
       <c r="D137" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E137" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>2</v>
@@ -6625,14 +6623,14 @@
         <v>9</v>
       </c>
       <c r="I137" s="3">
-        <v>7.5300000000000011E-3</v>
+        <v>5.0899999999999999E-3</v>
       </c>
       <c r="J137" s="3">
-        <v>8.6000000000000009E-4</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="K137" s="3">
         <f t="shared" si="2"/>
-        <v>1.8825000000000003E-3</v>
+        <v>1.2725E-3</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>7</v>
@@ -6655,10 +6653,10 @@
         <v>12</v>
       </c>
       <c r="D138" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E138" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>2</v>
@@ -6670,14 +6668,14 @@
         <v>9</v>
       </c>
       <c r="I138" s="3">
-        <v>5.0899999999999999E-3</v>
+        <v>3.7700000000000003E-3</v>
       </c>
       <c r="J138" s="3">
-        <v>6.0000000000000006E-4</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="K138" s="3">
         <f t="shared" si="2"/>
-        <v>1.2725E-3</v>
+        <v>9.4250000000000009E-4</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>7</v>
@@ -6700,10 +6698,10 @@
         <v>12</v>
       </c>
       <c r="D139" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E139" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>2</v>
@@ -6715,14 +6713,14 @@
         <v>9</v>
       </c>
       <c r="I139" s="3">
-        <v>3.7700000000000003E-3</v>
+        <v>3.3400000000000001E-3</v>
       </c>
       <c r="J139" s="3">
-        <v>4.6999999999999999E-4</v>
+        <v>4.3000000000000004E-4</v>
       </c>
       <c r="K139" s="3">
         <f t="shared" si="2"/>
-        <v>9.4250000000000009E-4</v>
+        <v>8.3500000000000002E-4</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>7</v>
@@ -6745,10 +6743,10 @@
         <v>12</v>
       </c>
       <c r="D140" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E140" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>2</v>
@@ -6760,14 +6758,14 @@
         <v>9</v>
       </c>
       <c r="I140" s="3">
-        <v>3.3400000000000001E-3</v>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="J140" s="3">
-        <v>4.3000000000000004E-4</v>
+        <v>3.9999999999999996E-4</v>
       </c>
       <c r="K140" s="3">
         <f t="shared" si="2"/>
-        <v>8.3500000000000002E-4</v>
+        <v>7.2250000000000005E-4</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>7</v>
@@ -6790,10 +6788,10 @@
         <v>12</v>
       </c>
       <c r="D141" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E141" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>2</v>
@@ -6805,14 +6803,14 @@
         <v>9</v>
       </c>
       <c r="I141" s="3">
-        <v>2.8900000000000002E-3</v>
+        <v>2.3100000000000004E-3</v>
       </c>
       <c r="J141" s="3">
-        <v>3.9999999999999996E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="K141" s="3">
         <f t="shared" si="2"/>
-        <v>7.2250000000000005E-4</v>
+        <v>5.7750000000000011E-4</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>7</v>
@@ -6835,10 +6833,10 @@
         <v>12</v>
       </c>
       <c r="D142" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E142" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>2</v>
@@ -6850,14 +6848,14 @@
         <v>9</v>
       </c>
       <c r="I142" s="3">
-        <v>2.3100000000000004E-3</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="J142" s="3">
-        <v>3.6999999999999999E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="K142" s="3">
         <f t="shared" si="2"/>
-        <v>5.7750000000000011E-4</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>7</v>
@@ -6880,10 +6878,10 @@
         <v>12</v>
       </c>
       <c r="D143" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E143" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>2</v>
@@ -6895,14 +6893,14 @@
         <v>9</v>
       </c>
       <c r="I143" s="3">
-        <v>1.2000000000000001E-3</v>
+        <v>9.1E-4</v>
       </c>
       <c r="J143" s="3">
-        <v>2.5000000000000001E-4</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="K143" s="3">
         <f t="shared" si="2"/>
-        <v>3.0000000000000003E-4</v>
+        <v>2.275E-4</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>7</v>
@@ -6925,10 +6923,10 @@
         <v>12</v>
       </c>
       <c r="D144" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E144" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>2</v>
@@ -6940,14 +6938,14 @@
         <v>9</v>
       </c>
       <c r="I144" s="3">
-        <v>9.1E-4</v>
+        <v>5.2000000000000006E-4</v>
       </c>
       <c r="J144" s="3">
-        <v>2.2000000000000001E-4</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="K144" s="3">
         <f t="shared" si="2"/>
-        <v>2.275E-4</v>
+        <v>1.3000000000000002E-4</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>7</v>
@@ -6970,10 +6968,10 @@
         <v>12</v>
       </c>
       <c r="D145" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E145" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>2</v>
@@ -6985,14 +6983,14 @@
         <v>9</v>
       </c>
       <c r="I145" s="3">
-        <v>5.2000000000000006E-4</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="J145" s="3">
-        <v>1.6000000000000001E-4</v>
+        <v>1.3000000000000002E-4</v>
       </c>
       <c r="K145" s="3">
         <f t="shared" si="2"/>
-        <v>1.3000000000000002E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>7</v>
@@ -7015,10 +7013,10 @@
         <v>12</v>
       </c>
       <c r="D146" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E146" s="4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>2</v>
@@ -7030,14 +7028,14 @@
         <v>9</v>
       </c>
       <c r="I146" s="3">
-        <v>3.2000000000000003E-4</v>
+        <v>3.1E-4</v>
       </c>
       <c r="J146" s="3">
-        <v>1.3000000000000002E-4</v>
+        <v>1.2E-4</v>
       </c>
       <c r="K146" s="3">
         <f t="shared" si="2"/>
-        <v>8.0000000000000007E-5</v>
+        <v>7.75E-5</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>7</v>
@@ -7060,10 +7058,10 @@
         <v>12</v>
       </c>
       <c r="D147" s="4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="E147" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>2</v>
@@ -7075,14 +7073,14 @@
         <v>9</v>
       </c>
       <c r="I147" s="3">
-        <v>3.1E-4</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="J147" s="3">
-        <v>1.2E-4</v>
+        <v>9.9999999999999991E-5</v>
       </c>
       <c r="K147" s="3">
         <f t="shared" si="2"/>
-        <v>7.75E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>7</v>
@@ -7105,10 +7103,10 @@
         <v>12</v>
       </c>
       <c r="D148" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E148" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>2</v>
@@ -7120,14 +7118,14 @@
         <v>9</v>
       </c>
       <c r="I148" s="3">
-        <v>1.6000000000000001E-4</v>
+        <v>2.1000000000000004E-4</v>
       </c>
       <c r="J148" s="3">
-        <v>9.9999999999999991E-5</v>
+        <v>1.1E-4</v>
       </c>
       <c r="K148" s="3">
         <f t="shared" si="2"/>
-        <v>4.0000000000000003E-5</v>
+        <v>5.2500000000000009E-5</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>7</v>
@@ -7150,10 +7148,10 @@
         <v>12</v>
       </c>
       <c r="D149" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E149" s="4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>2</v>
@@ -7165,14 +7163,14 @@
         <v>9</v>
       </c>
       <c r="I149" s="3">
-        <v>2.1000000000000004E-4</v>
+        <v>4.9999999999999996E-5</v>
       </c>
       <c r="J149" s="3">
-        <v>1.1E-4</v>
+        <v>4.9999999999999996E-5</v>
       </c>
       <c r="K149" s="3">
         <f t="shared" si="2"/>
-        <v>5.2500000000000009E-5</v>
+        <v>1.2499999999999999E-5</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>7</v>
@@ -7195,10 +7193,10 @@
         <v>12</v>
       </c>
       <c r="D150" s="4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E150" s="4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>2</v>
@@ -7210,14 +7208,14 @@
         <v>9</v>
       </c>
       <c r="I150" s="3">
-        <v>4.9999999999999996E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="J150" s="3">
-        <v>4.9999999999999996E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="K150" s="3">
         <f t="shared" si="2"/>
-        <v>1.2499999999999999E-5</v>
+        <v>1.225E-5</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>7</v>
@@ -7240,10 +7238,10 @@
         <v>12</v>
       </c>
       <c r="D151" s="4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E151" s="4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>2</v>
@@ -7255,14 +7253,14 @@
         <v>9</v>
       </c>
       <c r="I151" s="3">
-        <v>4.8999999999999998E-5</v>
+        <v>4.6000000000000007E-5</v>
       </c>
       <c r="J151" s="3">
-        <v>4.8999999999999998E-5</v>
+        <v>4.6000000000000007E-5</v>
       </c>
       <c r="K151" s="3">
         <f t="shared" si="2"/>
-        <v>1.225E-5</v>
+        <v>1.1500000000000002E-5</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>7</v>
@@ -7279,16 +7277,16 @@
         <v>400</v>
       </c>
       <c r="B152" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C152" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D152" s="4">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="E152" s="4">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>2</v>
@@ -7300,14 +7298,14 @@
         <v>9</v>
       </c>
       <c r="I152" s="3">
-        <v>4.6000000000000007E-5</v>
+        <v>2.2500000000000003E-3</v>
       </c>
       <c r="J152" s="3">
-        <v>4.6000000000000007E-5</v>
+        <v>8.5000000000000006E-4</v>
       </c>
       <c r="K152" s="3">
         <f t="shared" si="2"/>
-        <v>1.1500000000000002E-5</v>
+        <v>5.6250000000000007E-4</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>7</v>
@@ -7330,10 +7328,10 @@
         <v>13</v>
       </c>
       <c r="D153" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E153" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>2</v>
@@ -7345,14 +7343,14 @@
         <v>9</v>
       </c>
       <c r="I153" s="3">
-        <v>2.2500000000000003E-3</v>
+        <v>2.5899999999999999E-3</v>
       </c>
       <c r="J153" s="3">
-        <v>8.5000000000000006E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="K153" s="3">
         <f t="shared" si="2"/>
-        <v>5.6250000000000007E-4</v>
+        <v>6.4749999999999996E-4</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>7</v>
@@ -7375,10 +7373,10 @@
         <v>13</v>
       </c>
       <c r="D154" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E154" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>2</v>
@@ -7390,14 +7388,14 @@
         <v>9</v>
       </c>
       <c r="I154" s="3">
-        <v>2.5899999999999999E-3</v>
+        <v>1.57E-3</v>
       </c>
       <c r="J154" s="3">
-        <v>5.4000000000000001E-4</v>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="K154" s="3">
         <f t="shared" si="2"/>
-        <v>6.4749999999999996E-4</v>
+        <v>3.925E-4</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>7</v>
@@ -7420,10 +7418,10 @@
         <v>13</v>
       </c>
       <c r="D155" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E155" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>2</v>
@@ -7435,14 +7433,14 @@
         <v>9</v>
       </c>
       <c r="I155" s="3">
-        <v>1.57E-3</v>
+        <v>2.0700000000000002E-3</v>
       </c>
       <c r="J155" s="3">
-        <v>3.5000000000000005E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="K155" s="3">
         <f t="shared" si="2"/>
-        <v>3.925E-4</v>
+        <v>5.1750000000000006E-4</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>7</v>
@@ -7465,10 +7463,10 @@
         <v>13</v>
       </c>
       <c r="D156" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E156" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>2</v>
@@ -7480,14 +7478,14 @@
         <v>9</v>
       </c>
       <c r="I156" s="3">
-        <v>2.0700000000000002E-3</v>
+        <v>1.5400000000000001E-3</v>
       </c>
       <c r="J156" s="3">
-        <v>3.4000000000000002E-4</v>
+        <v>2.7E-4</v>
       </c>
       <c r="K156" s="3">
         <f t="shared" si="2"/>
-        <v>5.1750000000000006E-4</v>
+        <v>3.8500000000000003E-4</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>7</v>
@@ -7510,10 +7508,10 @@
         <v>13</v>
       </c>
       <c r="D157" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E157" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>2</v>
@@ -7525,14 +7523,14 @@
         <v>9</v>
       </c>
       <c r="I157" s="3">
-        <v>1.5400000000000001E-3</v>
+        <v>1.2900000000000001E-3</v>
       </c>
       <c r="J157" s="3">
-        <v>2.7E-4</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="K157" s="3">
         <f t="shared" si="2"/>
-        <v>3.8500000000000003E-4</v>
+        <v>3.2250000000000003E-4</v>
       </c>
       <c r="L157" s="2" t="s">
         <v>7</v>
@@ -7555,10 +7553,10 @@
         <v>13</v>
       </c>
       <c r="D158" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E158" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>2</v>
@@ -7570,14 +7568,14 @@
         <v>9</v>
       </c>
       <c r="I158" s="3">
-        <v>1.2900000000000001E-3</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="J158" s="3">
-        <v>2.4000000000000001E-4</v>
+        <v>1.9999999999999998E-4</v>
       </c>
       <c r="K158" s="3">
         <f t="shared" si="2"/>
-        <v>3.2250000000000003E-4</v>
+        <v>2.4250000000000001E-4</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>7</v>
@@ -7600,10 +7598,10 @@
         <v>13</v>
       </c>
       <c r="D159" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E159" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>2</v>
@@ -7615,14 +7613,14 @@
         <v>9</v>
       </c>
       <c r="I159" s="3">
-        <v>9.7000000000000005E-4</v>
+        <v>8.5000000000000006E-4</v>
       </c>
       <c r="J159" s="3">
-        <v>1.9999999999999998E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="K159" s="3">
         <f t="shared" si="2"/>
-        <v>2.4250000000000001E-4</v>
+        <v>2.1250000000000002E-4</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>7</v>
@@ -7645,10 +7643,10 @@
         <v>13</v>
       </c>
       <c r="D160" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E160" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>2</v>
@@ -7660,14 +7658,14 @@
         <v>9</v>
       </c>
       <c r="I160" s="3">
-        <v>8.5000000000000006E-4</v>
+        <v>5.2000000000000006E-4</v>
       </c>
       <c r="J160" s="3">
-        <v>1.8000000000000001E-4</v>
+        <v>1.4000000000000001E-4</v>
       </c>
       <c r="K160" s="3">
         <f t="shared" si="2"/>
-        <v>2.1250000000000002E-4</v>
+        <v>1.3000000000000002E-4</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>7</v>
@@ -7690,10 +7688,10 @@
         <v>13</v>
       </c>
       <c r="D161" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E161" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>2</v>
@@ -7705,14 +7703,14 @@
         <v>9</v>
       </c>
       <c r="I161" s="3">
-        <v>5.2000000000000006E-4</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="J161" s="3">
-        <v>1.4000000000000001E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="K161" s="3">
         <f t="shared" si="2"/>
-        <v>1.3000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>7</v>
@@ -7735,10 +7733,10 @@
         <v>13</v>
       </c>
       <c r="D162" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E162" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>2</v>
@@ -7750,14 +7748,14 @@
         <v>9</v>
       </c>
       <c r="I162" s="3">
-        <v>1.6000000000000001E-4</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="J162" s="3">
-        <v>8.0000000000000007E-5</v>
+        <v>9.9999999999999991E-5</v>
       </c>
       <c r="K162" s="3">
         <f t="shared" si="2"/>
-        <v>4.0000000000000003E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>7</v>
@@ -7780,10 +7778,10 @@
         <v>13</v>
       </c>
       <c r="D163" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E163" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>2</v>
@@ -7795,14 +7793,14 @@
         <v>9</v>
       </c>
       <c r="I163" s="3">
-        <v>2.4000000000000001E-4</v>
+        <v>1.3000000000000002E-4</v>
       </c>
       <c r="J163" s="3">
-        <v>9.9999999999999991E-5</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="K163" s="3">
         <f t="shared" si="2"/>
-        <v>6.0000000000000002E-5</v>
+        <v>3.2500000000000004E-5</v>
       </c>
       <c r="L163" s="2" t="s">
         <v>7</v>
@@ -7825,10 +7823,10 @@
         <v>13</v>
       </c>
       <c r="D164" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="E164" s="4">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>2</v>
@@ -7840,14 +7838,14 @@
         <v>9</v>
       </c>
       <c r="I164" s="3">
-        <v>1.3000000000000002E-4</v>
+        <v>1.2E-4</v>
       </c>
       <c r="J164" s="3">
-        <v>8.0000000000000007E-5</v>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="K164" s="3">
         <f t="shared" si="2"/>
-        <v>3.2500000000000004E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>7</v>
@@ -7870,10 +7868,10 @@
         <v>13</v>
       </c>
       <c r="D165" s="4">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E165" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>2</v>
@@ -7885,14 +7883,14 @@
         <v>9</v>
       </c>
       <c r="I165" s="3">
-        <v>1.2E-4</v>
+        <v>3.7000000000000005E-5</v>
       </c>
       <c r="J165" s="3">
-        <v>7.0000000000000007E-5</v>
+        <v>3.7000000000000005E-5</v>
       </c>
       <c r="K165" s="3">
         <f t="shared" si="2"/>
-        <v>3.0000000000000001E-5</v>
+        <v>9.2500000000000012E-6</v>
       </c>
       <c r="L165" s="2" t="s">
         <v>7</v>
@@ -7915,10 +7913,10 @@
         <v>13</v>
       </c>
       <c r="D166" s="4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E166" s="4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>2</v>
@@ -7930,14 +7928,14 @@
         <v>9</v>
       </c>
       <c r="I166" s="3">
-        <v>3.7000000000000005E-5</v>
+        <v>3.8999999999999999E-5</v>
       </c>
       <c r="J166" s="3">
-        <v>3.7000000000000005E-5</v>
+        <v>3.8999999999999999E-5</v>
       </c>
       <c r="K166" s="3">
         <f t="shared" si="2"/>
-        <v>9.2500000000000012E-6</v>
+        <v>9.7499999999999998E-6</v>
       </c>
       <c r="L166" s="2" t="s">
         <v>7</v>
@@ -7954,16 +7952,16 @@
         <v>400</v>
       </c>
       <c r="B167" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C167" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D167" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E167" s="4">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>2</v>
@@ -7975,14 +7973,14 @@
         <v>9</v>
       </c>
       <c r="I167" s="3">
-        <v>3.8999999999999999E-5</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="J167" s="3">
-        <v>3.8999999999999999E-5</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="K167" s="3">
         <f t="shared" si="2"/>
-        <v>9.7499999999999998E-6</v>
+        <v>2.175E-4</v>
       </c>
       <c r="L167" s="2" t="s">
         <v>7</v>
@@ -8005,10 +8003,10 @@
         <v>14</v>
       </c>
       <c r="D168" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E168" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>2</v>
@@ -8020,14 +8018,14 @@
         <v>9</v>
       </c>
       <c r="I168" s="3">
-        <v>8.7000000000000001E-4</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="J168" s="3">
-        <v>5.1000000000000004E-4</v>
+        <v>2.3000000000000001E-4</v>
       </c>
       <c r="K168" s="3">
         <f t="shared" si="2"/>
-        <v>2.175E-4</v>
+        <v>1.4249999999999999E-4</v>
       </c>
       <c r="L168" s="2" t="s">
         <v>7</v>
@@ -8050,10 +8048,10 @@
         <v>14</v>
       </c>
       <c r="D169" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E169" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>2</v>
@@ -8065,14 +8063,14 @@
         <v>9</v>
       </c>
       <c r="I169" s="3">
-        <v>5.6999999999999998E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="J169" s="3">
-        <v>2.3000000000000001E-4</v>
+        <v>1.9999999999999998E-4</v>
       </c>
       <c r="K169" s="3">
         <f t="shared" si="2"/>
-        <v>1.4249999999999999E-4</v>
+        <v>1.55E-4</v>
       </c>
       <c r="L169" s="2" t="s">
         <v>7</v>
@@ -8095,10 +8093,10 @@
         <v>14</v>
       </c>
       <c r="D170" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E170" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>2</v>
@@ -8110,14 +8108,14 @@
         <v>9</v>
       </c>
       <c r="I170" s="3">
-        <v>6.2E-4</v>
+        <v>8.5000000000000006E-4</v>
       </c>
       <c r="J170" s="3">
-        <v>1.9999999999999998E-4</v>
+        <v>2.1000000000000004E-4</v>
       </c>
       <c r="K170" s="3">
         <f t="shared" si="2"/>
-        <v>1.55E-4</v>
+        <v>2.1250000000000002E-4</v>
       </c>
       <c r="L170" s="2" t="s">
         <v>7</v>
@@ -8140,10 +8138,10 @@
         <v>14</v>
       </c>
       <c r="D171" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E171" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>2</v>
@@ -8155,14 +8153,14 @@
         <v>9</v>
       </c>
       <c r="I171" s="3">
-        <v>8.5000000000000006E-4</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="J171" s="3">
-        <v>2.1000000000000004E-4</v>
+        <v>1.3000000000000002E-4</v>
       </c>
       <c r="K171" s="3">
         <f t="shared" si="2"/>
-        <v>2.1250000000000002E-4</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="L171" s="2" t="s">
         <v>7</v>
@@ -8185,10 +8183,10 @@
         <v>14</v>
       </c>
       <c r="D172" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E172" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>2</v>
@@ -8200,14 +8198,14 @@
         <v>9</v>
       </c>
       <c r="I172" s="3">
-        <v>3.8000000000000002E-4</v>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="J172" s="3">
-        <v>1.3000000000000002E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="K172" s="3">
         <f t="shared" si="2"/>
-        <v>9.5000000000000005E-5</v>
+        <v>8.7500000000000013E-5</v>
       </c>
       <c r="L172" s="2" t="s">
         <v>7</v>
@@ -8230,10 +8228,10 @@
         <v>14</v>
       </c>
       <c r="D173" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E173" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>2</v>
@@ -8245,14 +8243,14 @@
         <v>9</v>
       </c>
       <c r="I173" s="3">
-        <v>3.5000000000000005E-4</v>
+        <v>2.9E-4</v>
       </c>
       <c r="J173" s="3">
-        <v>1.1E-4</v>
+        <v>9.9999999999999991E-5</v>
       </c>
       <c r="K173" s="3">
         <f t="shared" si="2"/>
-        <v>8.7500000000000013E-5</v>
+        <v>7.25E-5</v>
       </c>
       <c r="L173" s="2" t="s">
         <v>7</v>
@@ -8275,10 +8273,10 @@
         <v>14</v>
       </c>
       <c r="D174" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E174" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>2</v>
@@ -8290,14 +8288,14 @@
         <v>9</v>
       </c>
       <c r="I174" s="3">
-        <v>2.9E-4</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="J174" s="3">
-        <v>9.9999999999999991E-5</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="K174" s="3">
         <f t="shared" si="2"/>
-        <v>7.25E-5</v>
+        <v>4.7500000000000003E-5</v>
       </c>
       <c r="L174" s="2" t="s">
         <v>7</v>
@@ -8320,10 +8318,10 @@
         <v>14</v>
       </c>
       <c r="D175" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E175" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>2</v>
@@ -8335,14 +8333,14 @@
         <v>9</v>
       </c>
       <c r="I175" s="3">
-        <v>1.9000000000000001E-4</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J175" s="3">
-        <v>8.0000000000000007E-5</v>
+        <v>4.9999999999999996E-5</v>
       </c>
       <c r="K175" s="3">
         <f t="shared" si="2"/>
-        <v>4.7500000000000003E-5</v>
+        <v>2.2500000000000001E-5</v>
       </c>
       <c r="L175" s="2" t="s">
         <v>7</v>
@@ -8365,10 +8363,10 @@
         <v>14</v>
       </c>
       <c r="D176" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E176" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>2</v>
@@ -8380,14 +8378,14 @@
         <v>9</v>
       </c>
       <c r="I176" s="3">
-        <v>9.0000000000000006E-5</v>
+        <v>1.1E-4</v>
       </c>
       <c r="J176" s="3">
-        <v>4.9999999999999996E-5</v>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="K176" s="3">
         <f t="shared" si="2"/>
-        <v>2.2500000000000001E-5</v>
+        <v>2.7500000000000001E-5</v>
       </c>
       <c r="L176" s="2" t="s">
         <v>7</v>
@@ -8410,10 +8408,10 @@
         <v>14</v>
       </c>
       <c r="D177" s="4">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E177" s="4">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>2</v>
@@ -8425,14 +8423,14 @@
         <v>9</v>
       </c>
       <c r="I177" s="3">
-        <v>1.1E-4</v>
+        <v>5.700000000000001E-5</v>
       </c>
       <c r="J177" s="3">
-        <v>7.0000000000000007E-5</v>
+        <v>4.1E-5</v>
       </c>
       <c r="K177" s="3">
         <f t="shared" si="2"/>
-        <v>2.7500000000000001E-5</v>
+        <v>1.4250000000000002E-5</v>
       </c>
       <c r="L177" s="2" t="s">
         <v>7</v>
@@ -8455,10 +8453,10 @@
         <v>14</v>
       </c>
       <c r="D178" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E178" s="4">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>2</v>
@@ -8470,14 +8468,14 @@
         <v>9</v>
       </c>
       <c r="I178" s="3">
-        <v>5.700000000000001E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="J178" s="3">
-        <v>4.1E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="K178" s="3">
         <f t="shared" si="2"/>
-        <v>1.4250000000000002E-5</v>
+        <v>7.5000000000000002E-6</v>
       </c>
       <c r="L178" s="2" t="s">
         <v>7</v>
@@ -8486,51 +8484,6 @@
         <v>13</v>
       </c>
       <c r="N178" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>400</v>
-      </c>
-      <c r="B179" s="4">
-        <v>13</v>
-      </c>
-      <c r="C179" s="4">
-        <v>14</v>
-      </c>
-      <c r="D179" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="E179" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I179" s="3">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="J179" s="3">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="K179" s="3">
-        <f t="shared" si="2"/>
-        <v>7.5000000000000002E-6</v>
-      </c>
-      <c r="L179" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M179" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N179" s="2">
         <v>0.03</v>
       </c>
     </row>

--- a/proton_qT/expdata/12883.xlsx
+++ b/proton_qT/expdata/12883.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC34D1D0-53BF-C64B-8CFD-38EF4E4EC193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49E123B-5073-B742-BF4A-A56A8E51A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="720" windowWidth="26840" windowHeight="16240" xr2:uid="{A606F8B6-81B7-9948-8A71-8E6CCF832065}"/>
+    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15000" xr2:uid="{A606F8B6-81B7-9948-8A71-8E6CCF832065}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
